--- a/_data/ETHUSDT_30m.xlsx
+++ b/_data/ETHUSDT_30m.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1670"/>
+  <dimension ref="A1:F2014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33801,6 +33801,6886 @@
         <v>2615.0437</v>
       </c>
     </row>
+    <row r="1671" spans="1:6">
+      <c r="A1671" s="2">
+        <v>45534.45833333334</v>
+      </c>
+      <c r="B1671">
+        <v>2517.48</v>
+      </c>
+      <c r="C1671">
+        <v>2520.29</v>
+      </c>
+      <c r="D1671">
+        <v>2510.39</v>
+      </c>
+      <c r="E1671">
+        <v>2514.61</v>
+      </c>
+      <c r="F1671">
+        <v>3157.1768</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6">
+      <c r="A1672" s="2">
+        <v>45534.47916666666</v>
+      </c>
+      <c r="B1672">
+        <v>2514.62</v>
+      </c>
+      <c r="C1672">
+        <v>2517.2</v>
+      </c>
+      <c r="D1672">
+        <v>2507.31</v>
+      </c>
+      <c r="E1672">
+        <v>2512.44</v>
+      </c>
+      <c r="F1672">
+        <v>3215.7295</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6">
+      <c r="A1673" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1673">
+        <v>2512.43</v>
+      </c>
+      <c r="C1673">
+        <v>2525.65</v>
+      </c>
+      <c r="D1673">
+        <v>2510.25</v>
+      </c>
+      <c r="E1673">
+        <v>2520.4</v>
+      </c>
+      <c r="F1673">
+        <v>2650.4769</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6">
+      <c r="A1674" s="2">
+        <v>45534.52083333334</v>
+      </c>
+      <c r="B1674">
+        <v>2520.4</v>
+      </c>
+      <c r="C1674">
+        <v>2552.17</v>
+      </c>
+      <c r="D1674">
+        <v>2518.33</v>
+      </c>
+      <c r="E1674">
+        <v>2524.2</v>
+      </c>
+      <c r="F1674">
+        <v>12149.5368</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6">
+      <c r="A1675" s="2">
+        <v>45534.54166666666</v>
+      </c>
+      <c r="B1675">
+        <v>2524.19</v>
+      </c>
+      <c r="C1675">
+        <v>2530.44</v>
+      </c>
+      <c r="D1675">
+        <v>2518.47</v>
+      </c>
+      <c r="E1675">
+        <v>2525.69</v>
+      </c>
+      <c r="F1675">
+        <v>3451.0202</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6">
+      <c r="A1676" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="B1676">
+        <v>2525.69</v>
+      </c>
+      <c r="C1676">
+        <v>2530.8</v>
+      </c>
+      <c r="D1676">
+        <v>2493.53</v>
+      </c>
+      <c r="E1676">
+        <v>2524.81</v>
+      </c>
+      <c r="F1676">
+        <v>13662.6447</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6">
+      <c r="A1677" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1677">
+        <v>2524.81</v>
+      </c>
+      <c r="C1677">
+        <v>2533.24</v>
+      </c>
+      <c r="D1677">
+        <v>2496.81</v>
+      </c>
+      <c r="E1677">
+        <v>2508.2</v>
+      </c>
+      <c r="F1677">
+        <v>9669.039699999999</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6">
+      <c r="A1678" s="2">
+        <v>45534.60416666666</v>
+      </c>
+      <c r="B1678">
+        <v>2508.01</v>
+      </c>
+      <c r="C1678">
+        <v>2510.08</v>
+      </c>
+      <c r="D1678">
+        <v>2462.04</v>
+      </c>
+      <c r="E1678">
+        <v>2462.72</v>
+      </c>
+      <c r="F1678">
+        <v>15709.8608</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6">
+      <c r="A1679" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="B1679">
+        <v>2462.72</v>
+      </c>
+      <c r="C1679">
+        <v>2472.25</v>
+      </c>
+      <c r="D1679">
+        <v>2441.47</v>
+      </c>
+      <c r="E1679">
+        <v>2453.92</v>
+      </c>
+      <c r="F1679">
+        <v>26354.7801</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6">
+      <c r="A1680" s="2">
+        <v>45534.64583333334</v>
+      </c>
+      <c r="B1680">
+        <v>2453.92</v>
+      </c>
+      <c r="C1680">
+        <v>2456.78</v>
+      </c>
+      <c r="D1680">
+        <v>2434.96</v>
+      </c>
+      <c r="E1680">
+        <v>2448.75</v>
+      </c>
+      <c r="F1680">
+        <v>20336.2669</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6">
+      <c r="A1681" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1681">
+        <v>2448.76</v>
+      </c>
+      <c r="C1681">
+        <v>2463.1</v>
+      </c>
+      <c r="D1681">
+        <v>2431.14</v>
+      </c>
+      <c r="E1681">
+        <v>2449.45</v>
+      </c>
+      <c r="F1681">
+        <v>24915.5957</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6">
+      <c r="A1682" s="2">
+        <v>45534.6875</v>
+      </c>
+      <c r="B1682">
+        <v>2449.45</v>
+      </c>
+      <c r="C1682">
+        <v>2464.6</v>
+      </c>
+      <c r="D1682">
+        <v>2443.4</v>
+      </c>
+      <c r="E1682">
+        <v>2462.49</v>
+      </c>
+      <c r="F1682">
+        <v>10041.6993</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6">
+      <c r="A1683" s="2">
+        <v>45534.70833333334</v>
+      </c>
+      <c r="B1683">
+        <v>2462.48</v>
+      </c>
+      <c r="C1683">
+        <v>2468.84</v>
+      </c>
+      <c r="D1683">
+        <v>2456.5</v>
+      </c>
+      <c r="E1683">
+        <v>2460.07</v>
+      </c>
+      <c r="F1683">
+        <v>5245.5382</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6">
+      <c r="A1684" s="2">
+        <v>45534.72916666666</v>
+      </c>
+      <c r="B1684">
+        <v>2460.07</v>
+      </c>
+      <c r="C1684">
+        <v>2476.75</v>
+      </c>
+      <c r="D1684">
+        <v>2454.01</v>
+      </c>
+      <c r="E1684">
+        <v>2466.41</v>
+      </c>
+      <c r="F1684">
+        <v>4353.2608</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6">
+      <c r="A1685" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1685">
+        <v>2466.42</v>
+      </c>
+      <c r="C1685">
+        <v>2528.39</v>
+      </c>
+      <c r="D1685">
+        <v>2465.21</v>
+      </c>
+      <c r="E1685">
+        <v>2527.82</v>
+      </c>
+      <c r="F1685">
+        <v>34237.8663</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6">
+      <c r="A1686" s="2">
+        <v>45534.77083333334</v>
+      </c>
+      <c r="B1686">
+        <v>2527.82</v>
+      </c>
+      <c r="C1686">
+        <v>2542.19</v>
+      </c>
+      <c r="D1686">
+        <v>2513.39</v>
+      </c>
+      <c r="E1686">
+        <v>2535.79</v>
+      </c>
+      <c r="F1686">
+        <v>16868.5336</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6">
+      <c r="A1687" s="2">
+        <v>45534.79166666666</v>
+      </c>
+      <c r="B1687">
+        <v>2535.79</v>
+      </c>
+      <c r="C1687">
+        <v>2535.79</v>
+      </c>
+      <c r="D1687">
+        <v>2505.37</v>
+      </c>
+      <c r="E1687">
+        <v>2515.36</v>
+      </c>
+      <c r="F1687">
+        <v>29327.6476</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6">
+      <c r="A1688" s="2">
+        <v>45534.8125</v>
+      </c>
+      <c r="B1688">
+        <v>2515.37</v>
+      </c>
+      <c r="C1688">
+        <v>2516.37</v>
+      </c>
+      <c r="D1688">
+        <v>2497.27</v>
+      </c>
+      <c r="E1688">
+        <v>2506.94</v>
+      </c>
+      <c r="F1688">
+        <v>5710.9736</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6">
+      <c r="A1689" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1689">
+        <v>2506.94</v>
+      </c>
+      <c r="C1689">
+        <v>2515</v>
+      </c>
+      <c r="D1689">
+        <v>2506.35</v>
+      </c>
+      <c r="E1689">
+        <v>2508.77</v>
+      </c>
+      <c r="F1689">
+        <v>2174.2365</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6">
+      <c r="A1690" s="2">
+        <v>45534.85416666666</v>
+      </c>
+      <c r="B1690">
+        <v>2508.77</v>
+      </c>
+      <c r="C1690">
+        <v>2519</v>
+      </c>
+      <c r="D1690">
+        <v>2507.55</v>
+      </c>
+      <c r="E1690">
+        <v>2518.79</v>
+      </c>
+      <c r="F1690">
+        <v>2566.3436</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6">
+      <c r="A1691" s="2">
+        <v>45534.875</v>
+      </c>
+      <c r="B1691">
+        <v>2518.79</v>
+      </c>
+      <c r="C1691">
+        <v>2522.1</v>
+      </c>
+      <c r="D1691">
+        <v>2513.79</v>
+      </c>
+      <c r="E1691">
+        <v>2517.92</v>
+      </c>
+      <c r="F1691">
+        <v>2275.7342</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6">
+      <c r="A1692" s="2">
+        <v>45534.89583333334</v>
+      </c>
+      <c r="B1692">
+        <v>2517.92</v>
+      </c>
+      <c r="C1692">
+        <v>2521.4</v>
+      </c>
+      <c r="D1692">
+        <v>2514.65</v>
+      </c>
+      <c r="E1692">
+        <v>2518.13</v>
+      </c>
+      <c r="F1692">
+        <v>1170.2715</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6">
+      <c r="A1693" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1693">
+        <v>2518.13</v>
+      </c>
+      <c r="C1693">
+        <v>2525.4</v>
+      </c>
+      <c r="D1693">
+        <v>2517.2</v>
+      </c>
+      <c r="E1693">
+        <v>2522.6</v>
+      </c>
+      <c r="F1693">
+        <v>4811.2312</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6">
+      <c r="A1694" s="2">
+        <v>45534.9375</v>
+      </c>
+      <c r="B1694">
+        <v>2522.59</v>
+      </c>
+      <c r="C1694">
+        <v>2528.81</v>
+      </c>
+      <c r="D1694">
+        <v>2519.49</v>
+      </c>
+      <c r="E1694">
+        <v>2526.12</v>
+      </c>
+      <c r="F1694">
+        <v>1990.1082</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6">
+      <c r="A1695" s="2">
+        <v>45534.95833333334</v>
+      </c>
+      <c r="B1695">
+        <v>2526.12</v>
+      </c>
+      <c r="C1695">
+        <v>2530</v>
+      </c>
+      <c r="D1695">
+        <v>2524.11</v>
+      </c>
+      <c r="E1695">
+        <v>2529.99</v>
+      </c>
+      <c r="F1695">
+        <v>2188.273</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6">
+      <c r="A1696" s="2">
+        <v>45534.97916666666</v>
+      </c>
+      <c r="B1696">
+        <v>2529.99</v>
+      </c>
+      <c r="C1696">
+        <v>2530.66</v>
+      </c>
+      <c r="D1696">
+        <v>2525.29</v>
+      </c>
+      <c r="E1696">
+        <v>2526</v>
+      </c>
+      <c r="F1696">
+        <v>2092.4539</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6">
+      <c r="A1697" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1697">
+        <v>2525.99</v>
+      </c>
+      <c r="C1697">
+        <v>2530.82</v>
+      </c>
+      <c r="D1697">
+        <v>2522.61</v>
+      </c>
+      <c r="E1697">
+        <v>2529</v>
+      </c>
+      <c r="F1697">
+        <v>2756.2622</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6">
+      <c r="A1698" s="2">
+        <v>45535.02083333334</v>
+      </c>
+      <c r="B1698">
+        <v>2528.99</v>
+      </c>
+      <c r="C1698">
+        <v>2533.95</v>
+      </c>
+      <c r="D1698">
+        <v>2524.25</v>
+      </c>
+      <c r="E1698">
+        <v>2524.26</v>
+      </c>
+      <c r="F1698">
+        <v>2400.3273</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6">
+      <c r="A1699" s="2">
+        <v>45535.04166666666</v>
+      </c>
+      <c r="B1699">
+        <v>2524.25</v>
+      </c>
+      <c r="C1699">
+        <v>2529.72</v>
+      </c>
+      <c r="D1699">
+        <v>2519.3</v>
+      </c>
+      <c r="E1699">
+        <v>2528.62</v>
+      </c>
+      <c r="F1699">
+        <v>2529.1238</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6">
+      <c r="A1700" s="2">
+        <v>45535.0625</v>
+      </c>
+      <c r="B1700">
+        <v>2528.62</v>
+      </c>
+      <c r="C1700">
+        <v>2530.41</v>
+      </c>
+      <c r="D1700">
+        <v>2523.6</v>
+      </c>
+      <c r="E1700">
+        <v>2525.7</v>
+      </c>
+      <c r="F1700">
+        <v>1188.4612</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6">
+      <c r="A1701" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1701">
+        <v>2525.71</v>
+      </c>
+      <c r="C1701">
+        <v>2527.43</v>
+      </c>
+      <c r="D1701">
+        <v>2518.86</v>
+      </c>
+      <c r="E1701">
+        <v>2521.19</v>
+      </c>
+      <c r="F1701">
+        <v>1840.9512</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6">
+      <c r="A1702" s="2">
+        <v>45535.10416666666</v>
+      </c>
+      <c r="B1702">
+        <v>2521.19</v>
+      </c>
+      <c r="C1702">
+        <v>2523.8</v>
+      </c>
+      <c r="D1702">
+        <v>2519.14</v>
+      </c>
+      <c r="E1702">
+        <v>2522.6</v>
+      </c>
+      <c r="F1702">
+        <v>977.222</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6">
+      <c r="A1703" s="2">
+        <v>45535.125</v>
+      </c>
+      <c r="B1703">
+        <v>2522.64</v>
+      </c>
+      <c r="C1703">
+        <v>2525.91</v>
+      </c>
+      <c r="D1703">
+        <v>2521.41</v>
+      </c>
+      <c r="E1703">
+        <v>2525.91</v>
+      </c>
+      <c r="F1703">
+        <v>1326.6363</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6">
+      <c r="A1704" s="2">
+        <v>45535.14583333334</v>
+      </c>
+      <c r="B1704">
+        <v>2525.91</v>
+      </c>
+      <c r="C1704">
+        <v>2527.27</v>
+      </c>
+      <c r="D1704">
+        <v>2522.69</v>
+      </c>
+      <c r="E1704">
+        <v>2523.52</v>
+      </c>
+      <c r="F1704">
+        <v>1147.9557</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6">
+      <c r="A1705" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1705">
+        <v>2523.52</v>
+      </c>
+      <c r="C1705">
+        <v>2526.6</v>
+      </c>
+      <c r="D1705">
+        <v>2523.01</v>
+      </c>
+      <c r="E1705">
+        <v>2525.78</v>
+      </c>
+      <c r="F1705">
+        <v>1569.9009</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6">
+      <c r="A1706" s="2">
+        <v>45535.1875</v>
+      </c>
+      <c r="B1706">
+        <v>2525.78</v>
+      </c>
+      <c r="C1706">
+        <v>2529.86</v>
+      </c>
+      <c r="D1706">
+        <v>2524.3</v>
+      </c>
+      <c r="E1706">
+        <v>2529.41</v>
+      </c>
+      <c r="F1706">
+        <v>1541.4561</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6">
+      <c r="A1707" s="2">
+        <v>45535.20833333334</v>
+      </c>
+      <c r="B1707">
+        <v>2529.4</v>
+      </c>
+      <c r="C1707">
+        <v>2529.49</v>
+      </c>
+      <c r="D1707">
+        <v>2526.1</v>
+      </c>
+      <c r="E1707">
+        <v>2526.77</v>
+      </c>
+      <c r="F1707">
+        <v>1657.2537</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6">
+      <c r="A1708" s="2">
+        <v>45535.22916666666</v>
+      </c>
+      <c r="B1708">
+        <v>2526.77</v>
+      </c>
+      <c r="C1708">
+        <v>2528.4</v>
+      </c>
+      <c r="D1708">
+        <v>2522.25</v>
+      </c>
+      <c r="E1708">
+        <v>2523.2</v>
+      </c>
+      <c r="F1708">
+        <v>1961.4007</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6">
+      <c r="A1709" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1709">
+        <v>2523.2</v>
+      </c>
+      <c r="C1709">
+        <v>2528.19</v>
+      </c>
+      <c r="D1709">
+        <v>2522.07</v>
+      </c>
+      <c r="E1709">
+        <v>2526.21</v>
+      </c>
+      <c r="F1709">
+        <v>1519.7357</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6">
+      <c r="A1710" s="2">
+        <v>45535.27083333334</v>
+      </c>
+      <c r="B1710">
+        <v>2526.2</v>
+      </c>
+      <c r="C1710">
+        <v>2527.4</v>
+      </c>
+      <c r="D1710">
+        <v>2520.99</v>
+      </c>
+      <c r="E1710">
+        <v>2522.7</v>
+      </c>
+      <c r="F1710">
+        <v>3260.9068</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6">
+      <c r="A1711" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="B1711">
+        <v>2522.71</v>
+      </c>
+      <c r="C1711">
+        <v>2523.72</v>
+      </c>
+      <c r="D1711">
+        <v>2518.2</v>
+      </c>
+      <c r="E1711">
+        <v>2519.05</v>
+      </c>
+      <c r="F1711">
+        <v>1769.5182</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6">
+      <c r="A1712" s="2">
+        <v>45535.3125</v>
+      </c>
+      <c r="B1712">
+        <v>2519.04</v>
+      </c>
+      <c r="C1712">
+        <v>2523.37</v>
+      </c>
+      <c r="D1712">
+        <v>2518.17</v>
+      </c>
+      <c r="E1712">
+        <v>2521.01</v>
+      </c>
+      <c r="F1712">
+        <v>1676.0066</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6">
+      <c r="A1713" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1713">
+        <v>2521.01</v>
+      </c>
+      <c r="C1713">
+        <v>2523.8</v>
+      </c>
+      <c r="D1713">
+        <v>2519.2</v>
+      </c>
+      <c r="E1713">
+        <v>2520.63</v>
+      </c>
+      <c r="F1713">
+        <v>1328.1987</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6">
+      <c r="A1714" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="B1714">
+        <v>2520.64</v>
+      </c>
+      <c r="C1714">
+        <v>2522.35</v>
+      </c>
+      <c r="D1714">
+        <v>2512.8</v>
+      </c>
+      <c r="E1714">
+        <v>2513.23</v>
+      </c>
+      <c r="F1714">
+        <v>2343.998</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6">
+      <c r="A1715" s="2">
+        <v>45535.375</v>
+      </c>
+      <c r="B1715">
+        <v>2513.23</v>
+      </c>
+      <c r="C1715">
+        <v>2519.5</v>
+      </c>
+      <c r="D1715">
+        <v>2511.47</v>
+      </c>
+      <c r="E1715">
+        <v>2515.23</v>
+      </c>
+      <c r="F1715">
+        <v>2247.4098</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6">
+      <c r="A1716" s="2">
+        <v>45535.39583333334</v>
+      </c>
+      <c r="B1716">
+        <v>2515.23</v>
+      </c>
+      <c r="C1716">
+        <v>2519.14</v>
+      </c>
+      <c r="D1716">
+        <v>2512</v>
+      </c>
+      <c r="E1716">
+        <v>2514</v>
+      </c>
+      <c r="F1716">
+        <v>2103.2363</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6">
+      <c r="A1717" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1717">
+        <v>2514</v>
+      </c>
+      <c r="C1717">
+        <v>2524.03</v>
+      </c>
+      <c r="D1717">
+        <v>2513.5</v>
+      </c>
+      <c r="E1717">
+        <v>2520.31</v>
+      </c>
+      <c r="F1717">
+        <v>1606.6654</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6">
+      <c r="A1718" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="B1718">
+        <v>2520.3</v>
+      </c>
+      <c r="C1718">
+        <v>2528.5</v>
+      </c>
+      <c r="D1718">
+        <v>2519.82</v>
+      </c>
+      <c r="E1718">
+        <v>2525.7</v>
+      </c>
+      <c r="F1718">
+        <v>1762.74</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6">
+      <c r="A1719" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="B1719">
+        <v>2525.69</v>
+      </c>
+      <c r="C1719">
+        <v>2529.41</v>
+      </c>
+      <c r="D1719">
+        <v>2523.72</v>
+      </c>
+      <c r="E1719">
+        <v>2525.67</v>
+      </c>
+      <c r="F1719">
+        <v>1862.6987</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6">
+      <c r="A1720" s="2">
+        <v>45535.47916666666</v>
+      </c>
+      <c r="B1720">
+        <v>2525.67</v>
+      </c>
+      <c r="C1720">
+        <v>2529.81</v>
+      </c>
+      <c r="D1720">
+        <v>2524.41</v>
+      </c>
+      <c r="E1720">
+        <v>2525.5</v>
+      </c>
+      <c r="F1720">
+        <v>1518.7257</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6">
+      <c r="A1721" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1721">
+        <v>2525.49</v>
+      </c>
+      <c r="C1721">
+        <v>2527.19</v>
+      </c>
+      <c r="D1721">
+        <v>2522.05</v>
+      </c>
+      <c r="E1721">
+        <v>2524.41</v>
+      </c>
+      <c r="F1721">
+        <v>1317.3266</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6">
+      <c r="A1722" s="2">
+        <v>45535.52083333334</v>
+      </c>
+      <c r="B1722">
+        <v>2524.42</v>
+      </c>
+      <c r="C1722">
+        <v>2526.43</v>
+      </c>
+      <c r="D1722">
+        <v>2523.02</v>
+      </c>
+      <c r="E1722">
+        <v>2523.74</v>
+      </c>
+      <c r="F1722">
+        <v>1842.8458</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6">
+      <c r="A1723" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="B1723">
+        <v>2523.75</v>
+      </c>
+      <c r="C1723">
+        <v>2526.43</v>
+      </c>
+      <c r="D1723">
+        <v>2522.81</v>
+      </c>
+      <c r="E1723">
+        <v>2524.98</v>
+      </c>
+      <c r="F1723">
+        <v>1120.1566</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6">
+      <c r="A1724" s="2">
+        <v>45535.5625</v>
+      </c>
+      <c r="B1724">
+        <v>2524.98</v>
+      </c>
+      <c r="C1724">
+        <v>2527.8</v>
+      </c>
+      <c r="D1724">
+        <v>2515.01</v>
+      </c>
+      <c r="E1724">
+        <v>2515.86</v>
+      </c>
+      <c r="F1724">
+        <v>2057.5561</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6">
+      <c r="A1725" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1725">
+        <v>2515.87</v>
+      </c>
+      <c r="C1725">
+        <v>2525.5</v>
+      </c>
+      <c r="D1725">
+        <v>2513.8</v>
+      </c>
+      <c r="E1725">
+        <v>2523.21</v>
+      </c>
+      <c r="F1725">
+        <v>2801.4912</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6">
+      <c r="A1726" s="2">
+        <v>45535.60416666666</v>
+      </c>
+      <c r="B1726">
+        <v>2523.21</v>
+      </c>
+      <c r="C1726">
+        <v>2526.3</v>
+      </c>
+      <c r="D1726">
+        <v>2517.4</v>
+      </c>
+      <c r="E1726">
+        <v>2522.38</v>
+      </c>
+      <c r="F1726">
+        <v>1832.1256</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6">
+      <c r="A1727" s="2">
+        <v>45535.625</v>
+      </c>
+      <c r="B1727">
+        <v>2522.39</v>
+      </c>
+      <c r="C1727">
+        <v>2523.5</v>
+      </c>
+      <c r="D1727">
+        <v>2516.6</v>
+      </c>
+      <c r="E1727">
+        <v>2517.51</v>
+      </c>
+      <c r="F1727">
+        <v>1764.294</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6">
+      <c r="A1728" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="B1728">
+        <v>2517.51</v>
+      </c>
+      <c r="C1728">
+        <v>2521.36</v>
+      </c>
+      <c r="D1728">
+        <v>2516.66</v>
+      </c>
+      <c r="E1728">
+        <v>2519.19</v>
+      </c>
+      <c r="F1728">
+        <v>2632.3815</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6">
+      <c r="A1729" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1729">
+        <v>2519.18</v>
+      </c>
+      <c r="C1729">
+        <v>2519.8</v>
+      </c>
+      <c r="D1729">
+        <v>2514</v>
+      </c>
+      <c r="E1729">
+        <v>2516.7</v>
+      </c>
+      <c r="F1729">
+        <v>1570.9363</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6">
+      <c r="A1730" s="2">
+        <v>45535.6875</v>
+      </c>
+      <c r="B1730">
+        <v>2516.7</v>
+      </c>
+      <c r="C1730">
+        <v>2518.52</v>
+      </c>
+      <c r="D1730">
+        <v>2503.75</v>
+      </c>
+      <c r="E1730">
+        <v>2508.46</v>
+      </c>
+      <c r="F1730">
+        <v>3035.0393</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6">
+      <c r="A1731" s="2">
+        <v>45535.70833333334</v>
+      </c>
+      <c r="B1731">
+        <v>2508.45</v>
+      </c>
+      <c r="C1731">
+        <v>2511.2</v>
+      </c>
+      <c r="D1731">
+        <v>2501.35</v>
+      </c>
+      <c r="E1731">
+        <v>2506.72</v>
+      </c>
+      <c r="F1731">
+        <v>2404.9549</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6">
+      <c r="A1732" s="2">
+        <v>45535.72916666666</v>
+      </c>
+      <c r="B1732">
+        <v>2506.71</v>
+      </c>
+      <c r="C1732">
+        <v>2506.71</v>
+      </c>
+      <c r="D1732">
+        <v>2491.92</v>
+      </c>
+      <c r="E1732">
+        <v>2503.41</v>
+      </c>
+      <c r="F1732">
+        <v>4827.0636</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6">
+      <c r="A1733" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1733">
+        <v>2503.42</v>
+      </c>
+      <c r="C1733">
+        <v>2508.24</v>
+      </c>
+      <c r="D1733">
+        <v>2500.66</v>
+      </c>
+      <c r="E1733">
+        <v>2506.79</v>
+      </c>
+      <c r="F1733">
+        <v>3456.009</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6">
+      <c r="A1734" s="2">
+        <v>45535.77083333334</v>
+      </c>
+      <c r="B1734">
+        <v>2506.79</v>
+      </c>
+      <c r="C1734">
+        <v>2509.82</v>
+      </c>
+      <c r="D1734">
+        <v>2494.8</v>
+      </c>
+      <c r="E1734">
+        <v>2496.21</v>
+      </c>
+      <c r="F1734">
+        <v>2342.6466</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6">
+      <c r="A1735" s="2">
+        <v>45535.79166666666</v>
+      </c>
+      <c r="B1735">
+        <v>2496.21</v>
+      </c>
+      <c r="C1735">
+        <v>2501.14</v>
+      </c>
+      <c r="D1735">
+        <v>2493.42</v>
+      </c>
+      <c r="E1735">
+        <v>2498.49</v>
+      </c>
+      <c r="F1735">
+        <v>1948.2289</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6">
+      <c r="A1736" s="2">
+        <v>45535.8125</v>
+      </c>
+      <c r="B1736">
+        <v>2498.49</v>
+      </c>
+      <c r="C1736">
+        <v>2500.19</v>
+      </c>
+      <c r="D1736">
+        <v>2495.66</v>
+      </c>
+      <c r="E1736">
+        <v>2499.8</v>
+      </c>
+      <c r="F1736">
+        <v>2472.4453</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6">
+      <c r="A1737" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1737">
+        <v>2499.79</v>
+      </c>
+      <c r="C1737">
+        <v>2501.8</v>
+      </c>
+      <c r="D1737">
+        <v>2493.68</v>
+      </c>
+      <c r="E1737">
+        <v>2500.39</v>
+      </c>
+      <c r="F1737">
+        <v>1978.5727</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6">
+      <c r="A1738" s="2">
+        <v>45535.85416666666</v>
+      </c>
+      <c r="B1738">
+        <v>2500.4</v>
+      </c>
+      <c r="C1738">
+        <v>2508.19</v>
+      </c>
+      <c r="D1738">
+        <v>2500.4</v>
+      </c>
+      <c r="E1738">
+        <v>2507.01</v>
+      </c>
+      <c r="F1738">
+        <v>1123.6964</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6">
+      <c r="A1739" s="2">
+        <v>45535.875</v>
+      </c>
+      <c r="B1739">
+        <v>2507.02</v>
+      </c>
+      <c r="C1739">
+        <v>2512.64</v>
+      </c>
+      <c r="D1739">
+        <v>2503.4</v>
+      </c>
+      <c r="E1739">
+        <v>2509.68</v>
+      </c>
+      <c r="F1739">
+        <v>4454.0291</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6">
+      <c r="A1740" s="2">
+        <v>45535.89583333334</v>
+      </c>
+      <c r="B1740">
+        <v>2511.4</v>
+      </c>
+      <c r="C1740">
+        <v>2528.22</v>
+      </c>
+      <c r="D1740">
+        <v>2511.1</v>
+      </c>
+      <c r="E1740">
+        <v>2517.92</v>
+      </c>
+      <c r="F1740">
+        <v>4299.946</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6">
+      <c r="A1741" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1741">
+        <v>2517.91</v>
+      </c>
+      <c r="C1741">
+        <v>2522.21</v>
+      </c>
+      <c r="D1741">
+        <v>2516.32</v>
+      </c>
+      <c r="E1741">
+        <v>2516.5</v>
+      </c>
+      <c r="F1741">
+        <v>1727.6063</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6">
+      <c r="A1742" s="2">
+        <v>45535.9375</v>
+      </c>
+      <c r="B1742">
+        <v>2516.51</v>
+      </c>
+      <c r="C1742">
+        <v>2520.15</v>
+      </c>
+      <c r="D1742">
+        <v>2515.84</v>
+      </c>
+      <c r="E1742">
+        <v>2517</v>
+      </c>
+      <c r="F1742">
+        <v>932.0617</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6">
+      <c r="A1743" s="2">
+        <v>45535.95833333334</v>
+      </c>
+      <c r="B1743">
+        <v>2517.01</v>
+      </c>
+      <c r="C1743">
+        <v>2518.73</v>
+      </c>
+      <c r="D1743">
+        <v>2511.42</v>
+      </c>
+      <c r="E1743">
+        <v>2514.18</v>
+      </c>
+      <c r="F1743">
+        <v>865.4183</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6">
+      <c r="A1744" s="2">
+        <v>45535.97916666666</v>
+      </c>
+      <c r="B1744">
+        <v>2514.18</v>
+      </c>
+      <c r="C1744">
+        <v>2515.72</v>
+      </c>
+      <c r="D1744">
+        <v>2511.25</v>
+      </c>
+      <c r="E1744">
+        <v>2513.01</v>
+      </c>
+      <c r="F1744">
+        <v>832.5888</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6">
+      <c r="A1745" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1745">
+        <v>2513</v>
+      </c>
+      <c r="C1745">
+        <v>2516.28</v>
+      </c>
+      <c r="D1745">
+        <v>2507.51</v>
+      </c>
+      <c r="E1745">
+        <v>2507.99</v>
+      </c>
+      <c r="F1745">
+        <v>1152.956</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6">
+      <c r="A1746" s="2">
+        <v>45536.02083333334</v>
+      </c>
+      <c r="B1746">
+        <v>2507.99</v>
+      </c>
+      <c r="C1746">
+        <v>2511.98</v>
+      </c>
+      <c r="D1746">
+        <v>2504.75</v>
+      </c>
+      <c r="E1746">
+        <v>2505.4</v>
+      </c>
+      <c r="F1746">
+        <v>3211.9981</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6">
+      <c r="A1747" s="2">
+        <v>45536.04166666666</v>
+      </c>
+      <c r="B1747">
+        <v>2505.4</v>
+      </c>
+      <c r="C1747">
+        <v>2508.73</v>
+      </c>
+      <c r="D1747">
+        <v>2497.4</v>
+      </c>
+      <c r="E1747">
+        <v>2504.19</v>
+      </c>
+      <c r="F1747">
+        <v>2618.2178</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6">
+      <c r="A1748" s="2">
+        <v>45536.0625</v>
+      </c>
+      <c r="B1748">
+        <v>2504.19</v>
+      </c>
+      <c r="C1748">
+        <v>2504.19</v>
+      </c>
+      <c r="D1748">
+        <v>2493.85</v>
+      </c>
+      <c r="E1748">
+        <v>2493.86</v>
+      </c>
+      <c r="F1748">
+        <v>1815.814</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6">
+      <c r="A1749" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1749">
+        <v>2493.85</v>
+      </c>
+      <c r="C1749">
+        <v>2495.77</v>
+      </c>
+      <c r="D1749">
+        <v>2476.84</v>
+      </c>
+      <c r="E1749">
+        <v>2478</v>
+      </c>
+      <c r="F1749">
+        <v>6612.9885</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6">
+      <c r="A1750" s="2">
+        <v>45536.10416666666</v>
+      </c>
+      <c r="B1750">
+        <v>2478</v>
+      </c>
+      <c r="C1750">
+        <v>2487.86</v>
+      </c>
+      <c r="D1750">
+        <v>2476.44</v>
+      </c>
+      <c r="E1750">
+        <v>2487.59</v>
+      </c>
+      <c r="F1750">
+        <v>3251.5679</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6">
+      <c r="A1751" s="2">
+        <v>45536.125</v>
+      </c>
+      <c r="B1751">
+        <v>2487.59</v>
+      </c>
+      <c r="C1751">
+        <v>2495.74</v>
+      </c>
+      <c r="D1751">
+        <v>2485.28</v>
+      </c>
+      <c r="E1751">
+        <v>2492.53</v>
+      </c>
+      <c r="F1751">
+        <v>2305.994</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6">
+      <c r="A1752" s="2">
+        <v>45536.14583333334</v>
+      </c>
+      <c r="B1752">
+        <v>2492.52</v>
+      </c>
+      <c r="C1752">
+        <v>2493.79</v>
+      </c>
+      <c r="D1752">
+        <v>2487.29</v>
+      </c>
+      <c r="E1752">
+        <v>2488.74</v>
+      </c>
+      <c r="F1752">
+        <v>1070.8163</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6">
+      <c r="A1753" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1753">
+        <v>2488.75</v>
+      </c>
+      <c r="C1753">
+        <v>2489.72</v>
+      </c>
+      <c r="D1753">
+        <v>2477.28</v>
+      </c>
+      <c r="E1753">
+        <v>2487.88</v>
+      </c>
+      <c r="F1753">
+        <v>3433.4001</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6">
+      <c r="A1754" s="2">
+        <v>45536.1875</v>
+      </c>
+      <c r="B1754">
+        <v>2487.89</v>
+      </c>
+      <c r="C1754">
+        <v>2491.18</v>
+      </c>
+      <c r="D1754">
+        <v>2483.2</v>
+      </c>
+      <c r="E1754">
+        <v>2486.4</v>
+      </c>
+      <c r="F1754">
+        <v>1212.7054</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6">
+      <c r="A1755" s="2">
+        <v>45536.20833333334</v>
+      </c>
+      <c r="B1755">
+        <v>2486.4</v>
+      </c>
+      <c r="C1755">
+        <v>2488.29</v>
+      </c>
+      <c r="D1755">
+        <v>2466.31</v>
+      </c>
+      <c r="E1755">
+        <v>2472.61</v>
+      </c>
+      <c r="F1755">
+        <v>4384.5249</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6">
+      <c r="A1756" s="2">
+        <v>45536.22916666666</v>
+      </c>
+      <c r="B1756">
+        <v>2472.61</v>
+      </c>
+      <c r="C1756">
+        <v>2475.49</v>
+      </c>
+      <c r="D1756">
+        <v>2458.84</v>
+      </c>
+      <c r="E1756">
+        <v>2464.72</v>
+      </c>
+      <c r="F1756">
+        <v>8875.921899999999</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6">
+      <c r="A1757" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1757">
+        <v>2464.72</v>
+      </c>
+      <c r="C1757">
+        <v>2475.77</v>
+      </c>
+      <c r="D1757">
+        <v>2464.06</v>
+      </c>
+      <c r="E1757">
+        <v>2473.99</v>
+      </c>
+      <c r="F1757">
+        <v>2308.2274</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6">
+      <c r="A1758" s="2">
+        <v>45536.27083333334</v>
+      </c>
+      <c r="B1758">
+        <v>2474</v>
+      </c>
+      <c r="C1758">
+        <v>2478.44</v>
+      </c>
+      <c r="D1758">
+        <v>2470.86</v>
+      </c>
+      <c r="E1758">
+        <v>2476.6</v>
+      </c>
+      <c r="F1758">
+        <v>1634.3367</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6">
+      <c r="A1759" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="B1759">
+        <v>2476.61</v>
+      </c>
+      <c r="C1759">
+        <v>2479.86</v>
+      </c>
+      <c r="D1759">
+        <v>2474.33</v>
+      </c>
+      <c r="E1759">
+        <v>2475.25</v>
+      </c>
+      <c r="F1759">
+        <v>1521.4628</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6">
+      <c r="A1760" s="2">
+        <v>45536.3125</v>
+      </c>
+      <c r="B1760">
+        <v>2475.26</v>
+      </c>
+      <c r="C1760">
+        <v>2488.2</v>
+      </c>
+      <c r="D1760">
+        <v>2475.25</v>
+      </c>
+      <c r="E1760">
+        <v>2486.82</v>
+      </c>
+      <c r="F1760">
+        <v>3449.8983</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6">
+      <c r="A1761" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1761">
+        <v>2486.82</v>
+      </c>
+      <c r="C1761">
+        <v>2489.45</v>
+      </c>
+      <c r="D1761">
+        <v>2482.03</v>
+      </c>
+      <c r="E1761">
+        <v>2482.41</v>
+      </c>
+      <c r="F1761">
+        <v>3144.8378</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6">
+      <c r="A1762" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="B1762">
+        <v>2482.41</v>
+      </c>
+      <c r="C1762">
+        <v>2482.82</v>
+      </c>
+      <c r="D1762">
+        <v>2477.65</v>
+      </c>
+      <c r="E1762">
+        <v>2479.7</v>
+      </c>
+      <c r="F1762">
+        <v>2859.9889</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6">
+      <c r="A1763" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="B1763">
+        <v>2479.71</v>
+      </c>
+      <c r="C1763">
+        <v>2486.72</v>
+      </c>
+      <c r="D1763">
+        <v>2477.4</v>
+      </c>
+      <c r="E1763">
+        <v>2486.28</v>
+      </c>
+      <c r="F1763">
+        <v>1248.4396</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6">
+      <c r="A1764" s="2">
+        <v>45536.39583333334</v>
+      </c>
+      <c r="B1764">
+        <v>2486.29</v>
+      </c>
+      <c r="C1764">
+        <v>2492.88</v>
+      </c>
+      <c r="D1764">
+        <v>2482.34</v>
+      </c>
+      <c r="E1764">
+        <v>2483.88</v>
+      </c>
+      <c r="F1764">
+        <v>2979.3229</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6">
+      <c r="A1765" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1765">
+        <v>2483.89</v>
+      </c>
+      <c r="C1765">
+        <v>2484.8</v>
+      </c>
+      <c r="D1765">
+        <v>2472.4</v>
+      </c>
+      <c r="E1765">
+        <v>2474.02</v>
+      </c>
+      <c r="F1765">
+        <v>2624.9333</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6">
+      <c r="A1766" s="2">
+        <v>45536.4375</v>
+      </c>
+      <c r="B1766">
+        <v>2474.02</v>
+      </c>
+      <c r="C1766">
+        <v>2475</v>
+      </c>
+      <c r="D1766">
+        <v>2462.98</v>
+      </c>
+      <c r="E1766">
+        <v>2465</v>
+      </c>
+      <c r="F1766">
+        <v>2634.1757</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6">
+      <c r="A1767" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="B1767">
+        <v>2465.01</v>
+      </c>
+      <c r="C1767">
+        <v>2471.6</v>
+      </c>
+      <c r="D1767">
+        <v>2459.02</v>
+      </c>
+      <c r="E1767">
+        <v>2470.3</v>
+      </c>
+      <c r="F1767">
+        <v>4663.4076</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6">
+      <c r="A1768" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="B1768">
+        <v>2470.29</v>
+      </c>
+      <c r="C1768">
+        <v>2478.43</v>
+      </c>
+      <c r="D1768">
+        <v>2467.51</v>
+      </c>
+      <c r="E1768">
+        <v>2477.74</v>
+      </c>
+      <c r="F1768">
+        <v>2213.0651</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6">
+      <c r="A1769" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1769">
+        <v>2477.73</v>
+      </c>
+      <c r="C1769">
+        <v>2481</v>
+      </c>
+      <c r="D1769">
+        <v>2470</v>
+      </c>
+      <c r="E1769">
+        <v>2472.31</v>
+      </c>
+      <c r="F1769">
+        <v>2730.8196</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6">
+      <c r="A1770" s="2">
+        <v>45536.52083333334</v>
+      </c>
+      <c r="B1770">
+        <v>2472.3</v>
+      </c>
+      <c r="C1770">
+        <v>2476.15</v>
+      </c>
+      <c r="D1770">
+        <v>2462.78</v>
+      </c>
+      <c r="E1770">
+        <v>2467.39</v>
+      </c>
+      <c r="F1770">
+        <v>3010.5083</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6">
+      <c r="A1771" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="B1771">
+        <v>2467.39</v>
+      </c>
+      <c r="C1771">
+        <v>2473.69</v>
+      </c>
+      <c r="D1771">
+        <v>2464.74</v>
+      </c>
+      <c r="E1771">
+        <v>2466.74</v>
+      </c>
+      <c r="F1771">
+        <v>3105.3985</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6">
+      <c r="A1772" s="2">
+        <v>45536.5625</v>
+      </c>
+      <c r="B1772">
+        <v>2466.75</v>
+      </c>
+      <c r="C1772">
+        <v>2474.2</v>
+      </c>
+      <c r="D1772">
+        <v>2453</v>
+      </c>
+      <c r="E1772">
+        <v>2472.47</v>
+      </c>
+      <c r="F1772">
+        <v>5925.7407</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6">
+      <c r="A1773" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1773">
+        <v>2472.47</v>
+      </c>
+      <c r="C1773">
+        <v>2473.15</v>
+      </c>
+      <c r="D1773">
+        <v>2438</v>
+      </c>
+      <c r="E1773">
+        <v>2449.38</v>
+      </c>
+      <c r="F1773">
+        <v>13139.8504</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6">
+      <c r="A1774" s="2">
+        <v>45536.60416666666</v>
+      </c>
+      <c r="B1774">
+        <v>2449.39</v>
+      </c>
+      <c r="C1774">
+        <v>2466.1</v>
+      </c>
+      <c r="D1774">
+        <v>2448.2</v>
+      </c>
+      <c r="E1774">
+        <v>2455.64</v>
+      </c>
+      <c r="F1774">
+        <v>6707.8002</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6">
+      <c r="A1775" s="2">
+        <v>45536.625</v>
+      </c>
+      <c r="B1775">
+        <v>2455.63</v>
+      </c>
+      <c r="C1775">
+        <v>2465.87</v>
+      </c>
+      <c r="D1775">
+        <v>2453.13</v>
+      </c>
+      <c r="E1775">
+        <v>2455.88</v>
+      </c>
+      <c r="F1775">
+        <v>3236.6825</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6">
+      <c r="A1776" s="2">
+        <v>45536.64583333334</v>
+      </c>
+      <c r="B1776">
+        <v>2455.89</v>
+      </c>
+      <c r="C1776">
+        <v>2489.31</v>
+      </c>
+      <c r="D1776">
+        <v>2449.56</v>
+      </c>
+      <c r="E1776">
+        <v>2480.83</v>
+      </c>
+      <c r="F1776">
+        <v>10121.5654</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6">
+      <c r="A1777" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1777">
+        <v>2480.83</v>
+      </c>
+      <c r="C1777">
+        <v>2487.01</v>
+      </c>
+      <c r="D1777">
+        <v>2467</v>
+      </c>
+      <c r="E1777">
+        <v>2469.58</v>
+      </c>
+      <c r="F1777">
+        <v>4816.194</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6">
+      <c r="A1778" s="2">
+        <v>45536.6875</v>
+      </c>
+      <c r="B1778">
+        <v>2469.59</v>
+      </c>
+      <c r="C1778">
+        <v>2476.64</v>
+      </c>
+      <c r="D1778">
+        <v>2466.54</v>
+      </c>
+      <c r="E1778">
+        <v>2472.22</v>
+      </c>
+      <c r="F1778">
+        <v>2233.3398</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6">
+      <c r="A1779" s="2">
+        <v>45536.70833333334</v>
+      </c>
+      <c r="B1779">
+        <v>2472.23</v>
+      </c>
+      <c r="C1779">
+        <v>2477.63</v>
+      </c>
+      <c r="D1779">
+        <v>2458.51</v>
+      </c>
+      <c r="E1779">
+        <v>2461.46</v>
+      </c>
+      <c r="F1779">
+        <v>2374.0772</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6">
+      <c r="A1780" s="2">
+        <v>45536.72916666666</v>
+      </c>
+      <c r="B1780">
+        <v>2461.45</v>
+      </c>
+      <c r="C1780">
+        <v>2471.2</v>
+      </c>
+      <c r="D1780">
+        <v>2457.16</v>
+      </c>
+      <c r="E1780">
+        <v>2471.01</v>
+      </c>
+      <c r="F1780">
+        <v>1972.2681</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6">
+      <c r="A1781" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1781">
+        <v>2471.01</v>
+      </c>
+      <c r="C1781">
+        <v>2499</v>
+      </c>
+      <c r="D1781">
+        <v>2468.45</v>
+      </c>
+      <c r="E1781">
+        <v>2489.49</v>
+      </c>
+      <c r="F1781">
+        <v>5199.5445</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6">
+      <c r="A1782" s="2">
+        <v>45536.77083333334</v>
+      </c>
+      <c r="B1782">
+        <v>2489.51</v>
+      </c>
+      <c r="C1782">
+        <v>2499.15</v>
+      </c>
+      <c r="D1782">
+        <v>2482.56</v>
+      </c>
+      <c r="E1782">
+        <v>2494.13</v>
+      </c>
+      <c r="F1782">
+        <v>5163.8359</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6">
+      <c r="A1783" s="2">
+        <v>45536.79166666666</v>
+      </c>
+      <c r="B1783">
+        <v>2494.13</v>
+      </c>
+      <c r="C1783">
+        <v>2514.82</v>
+      </c>
+      <c r="D1783">
+        <v>2491.77</v>
+      </c>
+      <c r="E1783">
+        <v>2492.92</v>
+      </c>
+      <c r="F1783">
+        <v>14699.3491</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6">
+      <c r="A1784" s="2">
+        <v>45536.8125</v>
+      </c>
+      <c r="B1784">
+        <v>2492.93</v>
+      </c>
+      <c r="C1784">
+        <v>2502.67</v>
+      </c>
+      <c r="D1784">
+        <v>2491.3</v>
+      </c>
+      <c r="E1784">
+        <v>2501.71</v>
+      </c>
+      <c r="F1784">
+        <v>2325.707</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6">
+      <c r="A1785" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1785">
+        <v>2501.71</v>
+      </c>
+      <c r="C1785">
+        <v>2516</v>
+      </c>
+      <c r="D1785">
+        <v>2500</v>
+      </c>
+      <c r="E1785">
+        <v>2508.81</v>
+      </c>
+      <c r="F1785">
+        <v>2687.7195</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6">
+      <c r="A1786" s="2">
+        <v>45536.85416666666</v>
+      </c>
+      <c r="B1786">
+        <v>2508.82</v>
+      </c>
+      <c r="C1786">
+        <v>2510.17</v>
+      </c>
+      <c r="D1786">
+        <v>2502.09</v>
+      </c>
+      <c r="E1786">
+        <v>2502.2</v>
+      </c>
+      <c r="F1786">
+        <v>1956.3016</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6">
+      <c r="A1787" s="2">
+        <v>45536.875</v>
+      </c>
+      <c r="B1787">
+        <v>2502.21</v>
+      </c>
+      <c r="C1787">
+        <v>2502.68</v>
+      </c>
+      <c r="D1787">
+        <v>2473.8</v>
+      </c>
+      <c r="E1787">
+        <v>2477.29</v>
+      </c>
+      <c r="F1787">
+        <v>4976.6187</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6">
+      <c r="A1788" s="2">
+        <v>45536.89583333334</v>
+      </c>
+      <c r="B1788">
+        <v>2477.28</v>
+      </c>
+      <c r="C1788">
+        <v>2486.14</v>
+      </c>
+      <c r="D1788">
+        <v>2473.6</v>
+      </c>
+      <c r="E1788">
+        <v>2485.6</v>
+      </c>
+      <c r="F1788">
+        <v>1729.7079</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6">
+      <c r="A1789" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1789">
+        <v>2485.6</v>
+      </c>
+      <c r="C1789">
+        <v>2487.29</v>
+      </c>
+      <c r="D1789">
+        <v>2430</v>
+      </c>
+      <c r="E1789">
+        <v>2435.64</v>
+      </c>
+      <c r="F1789">
+        <v>14289.7612</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6">
+      <c r="A1790" s="2">
+        <v>45536.9375</v>
+      </c>
+      <c r="B1790">
+        <v>2435.64</v>
+      </c>
+      <c r="C1790">
+        <v>2437.29</v>
+      </c>
+      <c r="D1790">
+        <v>2402.57</v>
+      </c>
+      <c r="E1790">
+        <v>2406.32</v>
+      </c>
+      <c r="F1790">
+        <v>19923.8265</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6">
+      <c r="A1791" s="2">
+        <v>45536.95833333334</v>
+      </c>
+      <c r="B1791">
+        <v>2406.32</v>
+      </c>
+      <c r="C1791">
+        <v>2431.51</v>
+      </c>
+      <c r="D1791">
+        <v>2400</v>
+      </c>
+      <c r="E1791">
+        <v>2424.82</v>
+      </c>
+      <c r="F1791">
+        <v>16471.4622</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6">
+      <c r="A1792" s="2">
+        <v>45536.97916666666</v>
+      </c>
+      <c r="B1792">
+        <v>2424.83</v>
+      </c>
+      <c r="C1792">
+        <v>2433.29</v>
+      </c>
+      <c r="D1792">
+        <v>2424.11</v>
+      </c>
+      <c r="E1792">
+        <v>2425.72</v>
+      </c>
+      <c r="F1792">
+        <v>3100.6962</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6">
+      <c r="A1793" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1793">
+        <v>2425.71</v>
+      </c>
+      <c r="C1793">
+        <v>2440.28</v>
+      </c>
+      <c r="D1793">
+        <v>2423.52</v>
+      </c>
+      <c r="E1793">
+        <v>2439.32</v>
+      </c>
+      <c r="F1793">
+        <v>5434.1362</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6">
+      <c r="A1794" s="2">
+        <v>45537.02083333334</v>
+      </c>
+      <c r="B1794">
+        <v>2439.31</v>
+      </c>
+      <c r="C1794">
+        <v>2455.26</v>
+      </c>
+      <c r="D1794">
+        <v>2426.8</v>
+      </c>
+      <c r="E1794">
+        <v>2441.12</v>
+      </c>
+      <c r="F1794">
+        <v>8227.6068</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6">
+      <c r="A1795" s="2">
+        <v>45537.04166666666</v>
+      </c>
+      <c r="B1795">
+        <v>2441.13</v>
+      </c>
+      <c r="C1795">
+        <v>2447</v>
+      </c>
+      <c r="D1795">
+        <v>2433.11</v>
+      </c>
+      <c r="E1795">
+        <v>2437.16</v>
+      </c>
+      <c r="F1795">
+        <v>3400.3369</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6">
+      <c r="A1796" s="2">
+        <v>45537.0625</v>
+      </c>
+      <c r="B1796">
+        <v>2437.16</v>
+      </c>
+      <c r="C1796">
+        <v>2443.47</v>
+      </c>
+      <c r="D1796">
+        <v>2431.78</v>
+      </c>
+      <c r="E1796">
+        <v>2440</v>
+      </c>
+      <c r="F1796">
+        <v>5016.6337</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6">
+      <c r="A1797" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1797">
+        <v>2440</v>
+      </c>
+      <c r="C1797">
+        <v>2451.68</v>
+      </c>
+      <c r="D1797">
+        <v>2436.8</v>
+      </c>
+      <c r="E1797">
+        <v>2441.4</v>
+      </c>
+      <c r="F1797">
+        <v>4070.7064</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6">
+      <c r="A1798" s="2">
+        <v>45537.10416666666</v>
+      </c>
+      <c r="B1798">
+        <v>2441.4</v>
+      </c>
+      <c r="C1798">
+        <v>2441.4</v>
+      </c>
+      <c r="D1798">
+        <v>2431.5</v>
+      </c>
+      <c r="E1798">
+        <v>2437.49</v>
+      </c>
+      <c r="F1798">
+        <v>3226.5646</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6">
+      <c r="A1799" s="2">
+        <v>45537.125</v>
+      </c>
+      <c r="B1799">
+        <v>2437.49</v>
+      </c>
+      <c r="C1799">
+        <v>2451.92</v>
+      </c>
+      <c r="D1799">
+        <v>2437.16</v>
+      </c>
+      <c r="E1799">
+        <v>2449.19</v>
+      </c>
+      <c r="F1799">
+        <v>3043.0106</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6">
+      <c r="A1800" s="2">
+        <v>45537.14583333334</v>
+      </c>
+      <c r="B1800">
+        <v>2449.19</v>
+      </c>
+      <c r="C1800">
+        <v>2450.81</v>
+      </c>
+      <c r="D1800">
+        <v>2439.57</v>
+      </c>
+      <c r="E1800">
+        <v>2450.52</v>
+      </c>
+      <c r="F1800">
+        <v>2912.6617</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6">
+      <c r="A1801" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1801">
+        <v>2450.47</v>
+      </c>
+      <c r="C1801">
+        <v>2451.35</v>
+      </c>
+      <c r="D1801">
+        <v>2441.52</v>
+      </c>
+      <c r="E1801">
+        <v>2443.81</v>
+      </c>
+      <c r="F1801">
+        <v>5605.0792</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6">
+      <c r="A1802" s="2">
+        <v>45537.1875</v>
+      </c>
+      <c r="B1802">
+        <v>2443.81</v>
+      </c>
+      <c r="C1802">
+        <v>2444.51</v>
+      </c>
+      <c r="D1802">
+        <v>2434.97</v>
+      </c>
+      <c r="E1802">
+        <v>2435.4</v>
+      </c>
+      <c r="F1802">
+        <v>3482.78</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6">
+      <c r="A1803" s="2">
+        <v>45537.20833333334</v>
+      </c>
+      <c r="B1803">
+        <v>2435.4</v>
+      </c>
+      <c r="C1803">
+        <v>2449.6</v>
+      </c>
+      <c r="D1803">
+        <v>2435.28</v>
+      </c>
+      <c r="E1803">
+        <v>2448.36</v>
+      </c>
+      <c r="F1803">
+        <v>3163.7924</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6">
+      <c r="A1804" s="2">
+        <v>45537.22916666666</v>
+      </c>
+      <c r="B1804">
+        <v>2448.35</v>
+      </c>
+      <c r="C1804">
+        <v>2466.2</v>
+      </c>
+      <c r="D1804">
+        <v>2443.98</v>
+      </c>
+      <c r="E1804">
+        <v>2454.13</v>
+      </c>
+      <c r="F1804">
+        <v>8577.0569</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6">
+      <c r="A1805" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1805">
+        <v>2454.14</v>
+      </c>
+      <c r="C1805">
+        <v>2458.64</v>
+      </c>
+      <c r="D1805">
+        <v>2445.72</v>
+      </c>
+      <c r="E1805">
+        <v>2448.09</v>
+      </c>
+      <c r="F1805">
+        <v>4121.0945</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6">
+      <c r="A1806" s="2">
+        <v>45537.27083333334</v>
+      </c>
+      <c r="B1806">
+        <v>2448.08</v>
+      </c>
+      <c r="C1806">
+        <v>2452.2</v>
+      </c>
+      <c r="D1806">
+        <v>2445.72</v>
+      </c>
+      <c r="E1806">
+        <v>2446.69</v>
+      </c>
+      <c r="F1806">
+        <v>2285.9609</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6">
+      <c r="A1807" s="2">
+        <v>45537.29166666666</v>
+      </c>
+      <c r="B1807">
+        <v>2446.7</v>
+      </c>
+      <c r="C1807">
+        <v>2451.33</v>
+      </c>
+      <c r="D1807">
+        <v>2438.46</v>
+      </c>
+      <c r="E1807">
+        <v>2439.89</v>
+      </c>
+      <c r="F1807">
+        <v>5802.717</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6">
+      <c r="A1808" s="2">
+        <v>45537.3125</v>
+      </c>
+      <c r="B1808">
+        <v>2439.89</v>
+      </c>
+      <c r="C1808">
+        <v>2444.34</v>
+      </c>
+      <c r="D1808">
+        <v>2433.18</v>
+      </c>
+      <c r="E1808">
+        <v>2441.14</v>
+      </c>
+      <c r="F1808">
+        <v>4905.3864</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6">
+      <c r="A1809" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1809">
+        <v>2441.14</v>
+      </c>
+      <c r="C1809">
+        <v>2465.99</v>
+      </c>
+      <c r="D1809">
+        <v>2438.39</v>
+      </c>
+      <c r="E1809">
+        <v>2465.52</v>
+      </c>
+      <c r="F1809">
+        <v>12675.8172</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6">
+      <c r="A1810" s="2">
+        <v>45537.35416666666</v>
+      </c>
+      <c r="B1810">
+        <v>2465.51</v>
+      </c>
+      <c r="C1810">
+        <v>2476.15</v>
+      </c>
+      <c r="D1810">
+        <v>2465.12</v>
+      </c>
+      <c r="E1810">
+        <v>2468.81</v>
+      </c>
+      <c r="F1810">
+        <v>8486.174300000001</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6">
+      <c r="A1811" s="2">
+        <v>45537.375</v>
+      </c>
+      <c r="B1811">
+        <v>2468.8</v>
+      </c>
+      <c r="C1811">
+        <v>2474.25</v>
+      </c>
+      <c r="D1811">
+        <v>2461.7</v>
+      </c>
+      <c r="E1811">
+        <v>2468.75</v>
+      </c>
+      <c r="F1811">
+        <v>3913.7057</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6">
+      <c r="A1812" s="2">
+        <v>45537.39583333334</v>
+      </c>
+      <c r="B1812">
+        <v>2468.74</v>
+      </c>
+      <c r="C1812">
+        <v>2520.41</v>
+      </c>
+      <c r="D1812">
+        <v>2466.44</v>
+      </c>
+      <c r="E1812">
+        <v>2516.19</v>
+      </c>
+      <c r="F1812">
+        <v>25765.4646</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6">
+      <c r="A1813" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1813">
+        <v>2516.19</v>
+      </c>
+      <c r="C1813">
+        <v>2539.53</v>
+      </c>
+      <c r="D1813">
+        <v>2510.07</v>
+      </c>
+      <c r="E1813">
+        <v>2531.94</v>
+      </c>
+      <c r="F1813">
+        <v>18668.2988</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6">
+      <c r="A1814" s="2">
+        <v>45537.4375</v>
+      </c>
+      <c r="B1814">
+        <v>2531.95</v>
+      </c>
+      <c r="C1814">
+        <v>2534.47</v>
+      </c>
+      <c r="D1814">
+        <v>2518.21</v>
+      </c>
+      <c r="E1814">
+        <v>2524.79</v>
+      </c>
+      <c r="F1814">
+        <v>7270.2144</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6">
+      <c r="A1815" s="2">
+        <v>45537.45833333334</v>
+      </c>
+      <c r="B1815">
+        <v>2524.78</v>
+      </c>
+      <c r="C1815">
+        <v>2527.87</v>
+      </c>
+      <c r="D1815">
+        <v>2517.81</v>
+      </c>
+      <c r="E1815">
+        <v>2527.8</v>
+      </c>
+      <c r="F1815">
+        <v>4027.9528</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6">
+      <c r="A1816" s="2">
+        <v>45537.47916666666</v>
+      </c>
+      <c r="B1816">
+        <v>2527.8</v>
+      </c>
+      <c r="C1816">
+        <v>2527.97</v>
+      </c>
+      <c r="D1816">
+        <v>2516</v>
+      </c>
+      <c r="E1816">
+        <v>2516.82</v>
+      </c>
+      <c r="F1816">
+        <v>4052.1694</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6">
+      <c r="A1817" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1817">
+        <v>2515.81</v>
+      </c>
+      <c r="C1817">
+        <v>2523.64</v>
+      </c>
+      <c r="D1817">
+        <v>2510.59</v>
+      </c>
+      <c r="E1817">
+        <v>2522.2</v>
+      </c>
+      <c r="F1817">
+        <v>4972.2995</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6">
+      <c r="A1818" s="2">
+        <v>45537.52083333334</v>
+      </c>
+      <c r="B1818">
+        <v>2522.2</v>
+      </c>
+      <c r="C1818">
+        <v>2524.67</v>
+      </c>
+      <c r="D1818">
+        <v>2517.39</v>
+      </c>
+      <c r="E1818">
+        <v>2520.79</v>
+      </c>
+      <c r="F1818">
+        <v>3920.4758</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6">
+      <c r="A1819" s="2">
+        <v>45537.54166666666</v>
+      </c>
+      <c r="B1819">
+        <v>2520.79</v>
+      </c>
+      <c r="C1819">
+        <v>2523.19</v>
+      </c>
+      <c r="D1819">
+        <v>2509.25</v>
+      </c>
+      <c r="E1819">
+        <v>2512.89</v>
+      </c>
+      <c r="F1819">
+        <v>6077.0721</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6">
+      <c r="A1820" s="2">
+        <v>45537.5625</v>
+      </c>
+      <c r="B1820">
+        <v>2512.9</v>
+      </c>
+      <c r="C1820">
+        <v>2515.12</v>
+      </c>
+      <c r="D1820">
+        <v>2504.4</v>
+      </c>
+      <c r="E1820">
+        <v>2505.21</v>
+      </c>
+      <c r="F1820">
+        <v>4448.7606</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6">
+      <c r="A1821" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1821">
+        <v>2505.21</v>
+      </c>
+      <c r="C1821">
+        <v>2509.35</v>
+      </c>
+      <c r="D1821">
+        <v>2492.55</v>
+      </c>
+      <c r="E1821">
+        <v>2508.77</v>
+      </c>
+      <c r="F1821">
+        <v>6242.8901</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6">
+      <c r="A1822" s="2">
+        <v>45537.60416666666</v>
+      </c>
+      <c r="B1822">
+        <v>2508.77</v>
+      </c>
+      <c r="C1822">
+        <v>2528</v>
+      </c>
+      <c r="D1822">
+        <v>2508.52</v>
+      </c>
+      <c r="E1822">
+        <v>2519.61</v>
+      </c>
+      <c r="F1822">
+        <v>7688.7247</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6">
+      <c r="A1823" s="2">
+        <v>45537.625</v>
+      </c>
+      <c r="B1823">
+        <v>2519.6</v>
+      </c>
+      <c r="C1823">
+        <v>2525.64</v>
+      </c>
+      <c r="D1823">
+        <v>2514.41</v>
+      </c>
+      <c r="E1823">
+        <v>2516.59</v>
+      </c>
+      <c r="F1823">
+        <v>4261.5078</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6">
+      <c r="A1824" s="2">
+        <v>45537.64583333334</v>
+      </c>
+      <c r="B1824">
+        <v>2516.6</v>
+      </c>
+      <c r="C1824">
+        <v>2525.79</v>
+      </c>
+      <c r="D1824">
+        <v>2512.75</v>
+      </c>
+      <c r="E1824">
+        <v>2513.2</v>
+      </c>
+      <c r="F1824">
+        <v>4031.6932</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6">
+      <c r="A1825" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1825">
+        <v>2513.2</v>
+      </c>
+      <c r="C1825">
+        <v>2521.4</v>
+      </c>
+      <c r="D1825">
+        <v>2510.57</v>
+      </c>
+      <c r="E1825">
+        <v>2511.08</v>
+      </c>
+      <c r="F1825">
+        <v>4160.1778</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6">
+      <c r="A1826" s="2">
+        <v>45537.6875</v>
+      </c>
+      <c r="B1826">
+        <v>2511.09</v>
+      </c>
+      <c r="C1826">
+        <v>2517.13</v>
+      </c>
+      <c r="D1826">
+        <v>2505.78</v>
+      </c>
+      <c r="E1826">
+        <v>2511.97</v>
+      </c>
+      <c r="F1826">
+        <v>6350.5079</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6">
+      <c r="A1827" s="2">
+        <v>45537.70833333334</v>
+      </c>
+      <c r="B1827">
+        <v>2511.96</v>
+      </c>
+      <c r="C1827">
+        <v>2520.8</v>
+      </c>
+      <c r="D1827">
+        <v>2511.75</v>
+      </c>
+      <c r="E1827">
+        <v>2520.63</v>
+      </c>
+      <c r="F1827">
+        <v>2888.9355</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6">
+      <c r="A1828" s="2">
+        <v>45537.72916666666</v>
+      </c>
+      <c r="B1828">
+        <v>2520.64</v>
+      </c>
+      <c r="C1828">
+        <v>2525</v>
+      </c>
+      <c r="D1828">
+        <v>2515.86</v>
+      </c>
+      <c r="E1828">
+        <v>2522.78</v>
+      </c>
+      <c r="F1828">
+        <v>3059.3379</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6">
+      <c r="A1829" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1829">
+        <v>2522.79</v>
+      </c>
+      <c r="C1829">
+        <v>2530.92</v>
+      </c>
+      <c r="D1829">
+        <v>2519.6</v>
+      </c>
+      <c r="E1829">
+        <v>2523.61</v>
+      </c>
+      <c r="F1829">
+        <v>3519.5503</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6">
+      <c r="A1830" s="2">
+        <v>45537.77083333334</v>
+      </c>
+      <c r="B1830">
+        <v>2523.61</v>
+      </c>
+      <c r="C1830">
+        <v>2525.2</v>
+      </c>
+      <c r="D1830">
+        <v>2515.55</v>
+      </c>
+      <c r="E1830">
+        <v>2523.86</v>
+      </c>
+      <c r="F1830">
+        <v>2325.7769</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6">
+      <c r="A1831" s="2">
+        <v>45537.79166666666</v>
+      </c>
+      <c r="B1831">
+        <v>2523.86</v>
+      </c>
+      <c r="C1831">
+        <v>2526.06</v>
+      </c>
+      <c r="D1831">
+        <v>2519.21</v>
+      </c>
+      <c r="E1831">
+        <v>2523.95</v>
+      </c>
+      <c r="F1831">
+        <v>3897.2956</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6">
+      <c r="A1832" s="2">
+        <v>45537.8125</v>
+      </c>
+      <c r="B1832">
+        <v>2523.94</v>
+      </c>
+      <c r="C1832">
+        <v>2526.64</v>
+      </c>
+      <c r="D1832">
+        <v>2521.61</v>
+      </c>
+      <c r="E1832">
+        <v>2524.25</v>
+      </c>
+      <c r="F1832">
+        <v>3714.5182</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6">
+      <c r="A1833" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1833">
+        <v>2524.26</v>
+      </c>
+      <c r="C1833">
+        <v>2536.84</v>
+      </c>
+      <c r="D1833">
+        <v>2522.22</v>
+      </c>
+      <c r="E1833">
+        <v>2531.46</v>
+      </c>
+      <c r="F1833">
+        <v>2998.4753</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6">
+      <c r="A1834" s="2">
+        <v>45537.85416666666</v>
+      </c>
+      <c r="B1834">
+        <v>2531.46</v>
+      </c>
+      <c r="C1834">
+        <v>2564.83</v>
+      </c>
+      <c r="D1834">
+        <v>2530.21</v>
+      </c>
+      <c r="E1834">
+        <v>2554.14</v>
+      </c>
+      <c r="F1834">
+        <v>12029.4471</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:6">
+      <c r="A1835" s="2">
+        <v>45537.875</v>
+      </c>
+      <c r="B1835">
+        <v>2554.13</v>
+      </c>
+      <c r="C1835">
+        <v>2563.07</v>
+      </c>
+      <c r="D1835">
+        <v>2542.82</v>
+      </c>
+      <c r="E1835">
+        <v>2548.6</v>
+      </c>
+      <c r="F1835">
+        <v>5291.767</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:6">
+      <c r="A1836" s="2">
+        <v>45537.89583333334</v>
+      </c>
+      <c r="B1836">
+        <v>2548.6</v>
+      </c>
+      <c r="C1836">
+        <v>2548.61</v>
+      </c>
+      <c r="D1836">
+        <v>2536.7</v>
+      </c>
+      <c r="E1836">
+        <v>2544.73</v>
+      </c>
+      <c r="F1836">
+        <v>2621.9912</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:6">
+      <c r="A1837" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1837">
+        <v>2544.73</v>
+      </c>
+      <c r="C1837">
+        <v>2548.75</v>
+      </c>
+      <c r="D1837">
+        <v>2541.68</v>
+      </c>
+      <c r="E1837">
+        <v>2545.19</v>
+      </c>
+      <c r="F1837">
+        <v>2220.9026</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:6">
+      <c r="A1838" s="2">
+        <v>45537.9375</v>
+      </c>
+      <c r="B1838">
+        <v>2545.19</v>
+      </c>
+      <c r="C1838">
+        <v>2547.4</v>
+      </c>
+      <c r="D1838">
+        <v>2541.17</v>
+      </c>
+      <c r="E1838">
+        <v>2545.14</v>
+      </c>
+      <c r="F1838">
+        <v>2517.7101</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6">
+      <c r="A1839" s="2">
+        <v>45537.95833333334</v>
+      </c>
+      <c r="B1839">
+        <v>2545.14</v>
+      </c>
+      <c r="C1839">
+        <v>2547.73</v>
+      </c>
+      <c r="D1839">
+        <v>2539.43</v>
+      </c>
+      <c r="E1839">
+        <v>2539.69</v>
+      </c>
+      <c r="F1839">
+        <v>1528.3651</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:6">
+      <c r="A1840" s="2">
+        <v>45537.97916666666</v>
+      </c>
+      <c r="B1840">
+        <v>2539.7</v>
+      </c>
+      <c r="C1840">
+        <v>2541</v>
+      </c>
+      <c r="D1840">
+        <v>2534.44</v>
+      </c>
+      <c r="E1840">
+        <v>2538.01</v>
+      </c>
+      <c r="F1840">
+        <v>2695.4516</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6">
+      <c r="A1841" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1841">
+        <v>2538</v>
+      </c>
+      <c r="C1841">
+        <v>2540.35</v>
+      </c>
+      <c r="D1841">
+        <v>2529.3</v>
+      </c>
+      <c r="E1841">
+        <v>2534.47</v>
+      </c>
+      <c r="F1841">
+        <v>3421.1929</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:6">
+      <c r="A1842" s="2">
+        <v>45538.02083333334</v>
+      </c>
+      <c r="B1842">
+        <v>2534.46</v>
+      </c>
+      <c r="C1842">
+        <v>2536.27</v>
+      </c>
+      <c r="D1842">
+        <v>2528.08</v>
+      </c>
+      <c r="E1842">
+        <v>2534.65</v>
+      </c>
+      <c r="F1842">
+        <v>2583.7481</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:6">
+      <c r="A1843" s="2">
+        <v>45538.04166666666</v>
+      </c>
+      <c r="B1843">
+        <v>2534.65</v>
+      </c>
+      <c r="C1843">
+        <v>2543.65</v>
+      </c>
+      <c r="D1843">
+        <v>2530</v>
+      </c>
+      <c r="E1843">
+        <v>2532.67</v>
+      </c>
+      <c r="F1843">
+        <v>3033.4672</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6">
+      <c r="A1844" s="2">
+        <v>45538.0625</v>
+      </c>
+      <c r="B1844">
+        <v>2532.66</v>
+      </c>
+      <c r="C1844">
+        <v>2535.8</v>
+      </c>
+      <c r="D1844">
+        <v>2527.63</v>
+      </c>
+      <c r="E1844">
+        <v>2535.55</v>
+      </c>
+      <c r="F1844">
+        <v>2257.8087</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6">
+      <c r="A1845" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1845">
+        <v>2535.55</v>
+      </c>
+      <c r="C1845">
+        <v>2553.6</v>
+      </c>
+      <c r="D1845">
+        <v>2533.2</v>
+      </c>
+      <c r="E1845">
+        <v>2535.78</v>
+      </c>
+      <c r="F1845">
+        <v>6878.5025</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6">
+      <c r="A1846" s="2">
+        <v>45538.10416666666</v>
+      </c>
+      <c r="B1846">
+        <v>2535.78</v>
+      </c>
+      <c r="C1846">
+        <v>2539.2</v>
+      </c>
+      <c r="D1846">
+        <v>2528.29</v>
+      </c>
+      <c r="E1846">
+        <v>2529.1</v>
+      </c>
+      <c r="F1846">
+        <v>3192.9358</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6">
+      <c r="A1847" s="2">
+        <v>45538.125</v>
+      </c>
+      <c r="B1847">
+        <v>2529.1</v>
+      </c>
+      <c r="C1847">
+        <v>2529.8</v>
+      </c>
+      <c r="D1847">
+        <v>2517.64</v>
+      </c>
+      <c r="E1847">
+        <v>2518.18</v>
+      </c>
+      <c r="F1847">
+        <v>4061.953</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6">
+      <c r="A1848" s="2">
+        <v>45538.14583333334</v>
+      </c>
+      <c r="B1848">
+        <v>2518.2</v>
+      </c>
+      <c r="C1848">
+        <v>2522.6</v>
+      </c>
+      <c r="D1848">
+        <v>2514.73</v>
+      </c>
+      <c r="E1848">
+        <v>2516</v>
+      </c>
+      <c r="F1848">
+        <v>2300.5503</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6">
+      <c r="A1849" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1849">
+        <v>2516</v>
+      </c>
+      <c r="C1849">
+        <v>2519.19</v>
+      </c>
+      <c r="D1849">
+        <v>2513.39</v>
+      </c>
+      <c r="E1849">
+        <v>2515.14</v>
+      </c>
+      <c r="F1849">
+        <v>2791.5136</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6">
+      <c r="A1850" s="2">
+        <v>45538.1875</v>
+      </c>
+      <c r="B1850">
+        <v>2515.13</v>
+      </c>
+      <c r="C1850">
+        <v>2521.99</v>
+      </c>
+      <c r="D1850">
+        <v>2514.21</v>
+      </c>
+      <c r="E1850">
+        <v>2518.37</v>
+      </c>
+      <c r="F1850">
+        <v>2601.2599</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6">
+      <c r="A1851" s="2">
+        <v>45538.20833333334</v>
+      </c>
+      <c r="B1851">
+        <v>2518.37</v>
+      </c>
+      <c r="C1851">
+        <v>2525.2</v>
+      </c>
+      <c r="D1851">
+        <v>2515.01</v>
+      </c>
+      <c r="E1851">
+        <v>2523.61</v>
+      </c>
+      <c r="F1851">
+        <v>2180.934</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6">
+      <c r="A1852" s="2">
+        <v>45538.22916666666</v>
+      </c>
+      <c r="B1852">
+        <v>2523.61</v>
+      </c>
+      <c r="C1852">
+        <v>2524.2</v>
+      </c>
+      <c r="D1852">
+        <v>2519.1</v>
+      </c>
+      <c r="E1852">
+        <v>2522.14</v>
+      </c>
+      <c r="F1852">
+        <v>1398.6104</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6">
+      <c r="A1853" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1853">
+        <v>2522.14</v>
+      </c>
+      <c r="C1853">
+        <v>2522.14</v>
+      </c>
+      <c r="D1853">
+        <v>2512.46</v>
+      </c>
+      <c r="E1853">
+        <v>2519.59</v>
+      </c>
+      <c r="F1853">
+        <v>2989.8736</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6">
+      <c r="A1854" s="2">
+        <v>45538.27083333334</v>
+      </c>
+      <c r="B1854">
+        <v>2519.58</v>
+      </c>
+      <c r="C1854">
+        <v>2521.04</v>
+      </c>
+      <c r="D1854">
+        <v>2512.68</v>
+      </c>
+      <c r="E1854">
+        <v>2513.03</v>
+      </c>
+      <c r="F1854">
+        <v>2160.7673</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6">
+      <c r="A1855" s="2">
+        <v>45538.29166666666</v>
+      </c>
+      <c r="B1855">
+        <v>2513.04</v>
+      </c>
+      <c r="C1855">
+        <v>2520</v>
+      </c>
+      <c r="D1855">
+        <v>2513.04</v>
+      </c>
+      <c r="E1855">
+        <v>2517.39</v>
+      </c>
+      <c r="F1855">
+        <v>1751.843</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6">
+      <c r="A1856" s="2">
+        <v>45538.3125</v>
+      </c>
+      <c r="B1856">
+        <v>2517.4</v>
+      </c>
+      <c r="C1856">
+        <v>2523.62</v>
+      </c>
+      <c r="D1856">
+        <v>2517.39</v>
+      </c>
+      <c r="E1856">
+        <v>2519.55</v>
+      </c>
+      <c r="F1856">
+        <v>3508.3794</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:6">
+      <c r="A1857" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1857">
+        <v>2519.55</v>
+      </c>
+      <c r="C1857">
+        <v>2520.54</v>
+      </c>
+      <c r="D1857">
+        <v>2514.29</v>
+      </c>
+      <c r="E1857">
+        <v>2514.6</v>
+      </c>
+      <c r="F1857">
+        <v>1723.8133</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:6">
+      <c r="A1858" s="2">
+        <v>45538.35416666666</v>
+      </c>
+      <c r="B1858">
+        <v>2514.6</v>
+      </c>
+      <c r="C1858">
+        <v>2514.61</v>
+      </c>
+      <c r="D1858">
+        <v>2494.24</v>
+      </c>
+      <c r="E1858">
+        <v>2500.07</v>
+      </c>
+      <c r="F1858">
+        <v>6661.3694</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:6">
+      <c r="A1859" s="2">
+        <v>45538.375</v>
+      </c>
+      <c r="B1859">
+        <v>2500.07</v>
+      </c>
+      <c r="C1859">
+        <v>2503.77</v>
+      </c>
+      <c r="D1859">
+        <v>2498.14</v>
+      </c>
+      <c r="E1859">
+        <v>2500</v>
+      </c>
+      <c r="F1859">
+        <v>2618.0521</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:6">
+      <c r="A1860" s="2">
+        <v>45538.39583333334</v>
+      </c>
+      <c r="B1860">
+        <v>2500.01</v>
+      </c>
+      <c r="C1860">
+        <v>2508.94</v>
+      </c>
+      <c r="D1860">
+        <v>2499</v>
+      </c>
+      <c r="E1860">
+        <v>2504.2</v>
+      </c>
+      <c r="F1860">
+        <v>2359.3893</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6">
+      <c r="A1861" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1861">
+        <v>2504.2</v>
+      </c>
+      <c r="C1861">
+        <v>2513</v>
+      </c>
+      <c r="D1861">
+        <v>2501.3</v>
+      </c>
+      <c r="E1861">
+        <v>2512.93</v>
+      </c>
+      <c r="F1861">
+        <v>2546.591</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6">
+      <c r="A1862" s="2">
+        <v>45538.4375</v>
+      </c>
+      <c r="B1862">
+        <v>2512.92</v>
+      </c>
+      <c r="C1862">
+        <v>2512.93</v>
+      </c>
+      <c r="D1862">
+        <v>2499.4</v>
+      </c>
+      <c r="E1862">
+        <v>2505.3</v>
+      </c>
+      <c r="F1862">
+        <v>1978.7527</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6">
+      <c r="A1863" s="2">
+        <v>45538.45833333334</v>
+      </c>
+      <c r="B1863">
+        <v>2505.34</v>
+      </c>
+      <c r="C1863">
+        <v>2508.51</v>
+      </c>
+      <c r="D1863">
+        <v>2501.6</v>
+      </c>
+      <c r="E1863">
+        <v>2508.25</v>
+      </c>
+      <c r="F1863">
+        <v>1360.9727</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6">
+      <c r="A1864" s="2">
+        <v>45538.47916666666</v>
+      </c>
+      <c r="B1864">
+        <v>2508.25</v>
+      </c>
+      <c r="C1864">
+        <v>2510.84</v>
+      </c>
+      <c r="D1864">
+        <v>2504.6</v>
+      </c>
+      <c r="E1864">
+        <v>2509.59</v>
+      </c>
+      <c r="F1864">
+        <v>1455.5276</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6">
+      <c r="A1865" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1865">
+        <v>2509.59</v>
+      </c>
+      <c r="C1865">
+        <v>2513.11</v>
+      </c>
+      <c r="D1865">
+        <v>2506.14</v>
+      </c>
+      <c r="E1865">
+        <v>2511.7</v>
+      </c>
+      <c r="F1865">
+        <v>2224.4573</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:6">
+      <c r="A1866" s="2">
+        <v>45538.52083333334</v>
+      </c>
+      <c r="B1866">
+        <v>2511.69</v>
+      </c>
+      <c r="C1866">
+        <v>2519.12</v>
+      </c>
+      <c r="D1866">
+        <v>2510.32</v>
+      </c>
+      <c r="E1866">
+        <v>2510.72</v>
+      </c>
+      <c r="F1866">
+        <v>3614.0095</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:6">
+      <c r="A1867" s="2">
+        <v>45538.54166666666</v>
+      </c>
+      <c r="B1867">
+        <v>2510.72</v>
+      </c>
+      <c r="C1867">
+        <v>2517.93</v>
+      </c>
+      <c r="D1867">
+        <v>2504.45</v>
+      </c>
+      <c r="E1867">
+        <v>2505.21</v>
+      </c>
+      <c r="F1867">
+        <v>2924.9459</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:6">
+      <c r="A1868" s="2">
+        <v>45538.5625</v>
+      </c>
+      <c r="B1868">
+        <v>2505.21</v>
+      </c>
+      <c r="C1868">
+        <v>2505.68</v>
+      </c>
+      <c r="D1868">
+        <v>2459.12</v>
+      </c>
+      <c r="E1868">
+        <v>2465.1</v>
+      </c>
+      <c r="F1868">
+        <v>22348.0526</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6">
+      <c r="A1869" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1869">
+        <v>2465.09</v>
+      </c>
+      <c r="C1869">
+        <v>2469.35</v>
+      </c>
+      <c r="D1869">
+        <v>2450.42</v>
+      </c>
+      <c r="E1869">
+        <v>2459.69</v>
+      </c>
+      <c r="F1869">
+        <v>18864.9269</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:6">
+      <c r="A1870" s="2">
+        <v>45538.60416666666</v>
+      </c>
+      <c r="B1870">
+        <v>2459.69</v>
+      </c>
+      <c r="C1870">
+        <v>2459.69</v>
+      </c>
+      <c r="D1870">
+        <v>2443.21</v>
+      </c>
+      <c r="E1870">
+        <v>2446.26</v>
+      </c>
+      <c r="F1870">
+        <v>12355.5412</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6">
+      <c r="A1871" s="2">
+        <v>45538.625</v>
+      </c>
+      <c r="B1871">
+        <v>2446.27</v>
+      </c>
+      <c r="C1871">
+        <v>2456.37</v>
+      </c>
+      <c r="D1871">
+        <v>2441.08</v>
+      </c>
+      <c r="E1871">
+        <v>2446.51</v>
+      </c>
+      <c r="F1871">
+        <v>9720.4537</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6">
+      <c r="A1872" s="2">
+        <v>45538.64583333334</v>
+      </c>
+      <c r="B1872">
+        <v>2446.52</v>
+      </c>
+      <c r="C1872">
+        <v>2451.39</v>
+      </c>
+      <c r="D1872">
+        <v>2435.79</v>
+      </c>
+      <c r="E1872">
+        <v>2444.01</v>
+      </c>
+      <c r="F1872">
+        <v>9466.1131</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:6">
+      <c r="A1873" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1873">
+        <v>2444.01</v>
+      </c>
+      <c r="C1873">
+        <v>2449.02</v>
+      </c>
+      <c r="D1873">
+        <v>2437.4</v>
+      </c>
+      <c r="E1873">
+        <v>2440.04</v>
+      </c>
+      <c r="F1873">
+        <v>6862.0207</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6">
+      <c r="A1874" s="2">
+        <v>45538.6875</v>
+      </c>
+      <c r="B1874">
+        <v>2440.03</v>
+      </c>
+      <c r="C1874">
+        <v>2448.65</v>
+      </c>
+      <c r="D1874">
+        <v>2438</v>
+      </c>
+      <c r="E1874">
+        <v>2440.35</v>
+      </c>
+      <c r="F1874">
+        <v>4602.8944</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:6">
+      <c r="A1875" s="2">
+        <v>45538.70833333334</v>
+      </c>
+      <c r="B1875">
+        <v>2440.28</v>
+      </c>
+      <c r="C1875">
+        <v>2462.5</v>
+      </c>
+      <c r="D1875">
+        <v>2438.52</v>
+      </c>
+      <c r="E1875">
+        <v>2458.25</v>
+      </c>
+      <c r="F1875">
+        <v>4836.8009</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:6">
+      <c r="A1876" s="2">
+        <v>45538.72916666666</v>
+      </c>
+      <c r="B1876">
+        <v>2458.2</v>
+      </c>
+      <c r="C1876">
+        <v>2464</v>
+      </c>
+      <c r="D1876">
+        <v>2442.29</v>
+      </c>
+      <c r="E1876">
+        <v>2442.3</v>
+      </c>
+      <c r="F1876">
+        <v>3669.5677</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:6">
+      <c r="A1877" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1877">
+        <v>2442.3</v>
+      </c>
+      <c r="C1877">
+        <v>2450.6</v>
+      </c>
+      <c r="D1877">
+        <v>2435.83</v>
+      </c>
+      <c r="E1877">
+        <v>2448.12</v>
+      </c>
+      <c r="F1877">
+        <v>6371.4756</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6">
+      <c r="A1878" s="2">
+        <v>45538.77083333334</v>
+      </c>
+      <c r="B1878">
+        <v>2448.12</v>
+      </c>
+      <c r="C1878">
+        <v>2457</v>
+      </c>
+      <c r="D1878">
+        <v>2447.32</v>
+      </c>
+      <c r="E1878">
+        <v>2452.2</v>
+      </c>
+      <c r="F1878">
+        <v>4264.8895</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6">
+      <c r="A1879" s="2">
+        <v>45538.79166666666</v>
+      </c>
+      <c r="B1879">
+        <v>2452.2</v>
+      </c>
+      <c r="C1879">
+        <v>2469.87</v>
+      </c>
+      <c r="D1879">
+        <v>2451.97</v>
+      </c>
+      <c r="E1879">
+        <v>2457.62</v>
+      </c>
+      <c r="F1879">
+        <v>4664.4669</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:6">
+      <c r="A1880" s="2">
+        <v>45538.8125</v>
+      </c>
+      <c r="B1880">
+        <v>2457.63</v>
+      </c>
+      <c r="C1880">
+        <v>2459.61</v>
+      </c>
+      <c r="D1880">
+        <v>2446.25</v>
+      </c>
+      <c r="E1880">
+        <v>2447.6</v>
+      </c>
+      <c r="F1880">
+        <v>6256.0174</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6">
+      <c r="A1881" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1881">
+        <v>2447.6</v>
+      </c>
+      <c r="C1881">
+        <v>2465.47</v>
+      </c>
+      <c r="D1881">
+        <v>2447.43</v>
+      </c>
+      <c r="E1881">
+        <v>2458.21</v>
+      </c>
+      <c r="F1881">
+        <v>3537.7605</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:6">
+      <c r="A1882" s="2">
+        <v>45538.85416666666</v>
+      </c>
+      <c r="B1882">
+        <v>2458.21</v>
+      </c>
+      <c r="C1882">
+        <v>2464.15</v>
+      </c>
+      <c r="D1882">
+        <v>2454</v>
+      </c>
+      <c r="E1882">
+        <v>2463.61</v>
+      </c>
+      <c r="F1882">
+        <v>3121.2835</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6">
+      <c r="A1883" s="2">
+        <v>45538.875</v>
+      </c>
+      <c r="B1883">
+        <v>2463.62</v>
+      </c>
+      <c r="C1883">
+        <v>2466</v>
+      </c>
+      <c r="D1883">
+        <v>2449.61</v>
+      </c>
+      <c r="E1883">
+        <v>2451.63</v>
+      </c>
+      <c r="F1883">
+        <v>3418.8196</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6">
+      <c r="A1884" s="2">
+        <v>45538.89583333334</v>
+      </c>
+      <c r="B1884">
+        <v>2451.63</v>
+      </c>
+      <c r="C1884">
+        <v>2470.57</v>
+      </c>
+      <c r="D1884">
+        <v>2451.6</v>
+      </c>
+      <c r="E1884">
+        <v>2464.99</v>
+      </c>
+      <c r="F1884">
+        <v>4770.0486</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6">
+      <c r="A1885" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1885">
+        <v>2465</v>
+      </c>
+      <c r="C1885">
+        <v>2465.97</v>
+      </c>
+      <c r="D1885">
+        <v>2457.2</v>
+      </c>
+      <c r="E1885">
+        <v>2459.6</v>
+      </c>
+      <c r="F1885">
+        <v>2186.4898</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6">
+      <c r="A1886" s="2">
+        <v>45538.9375</v>
+      </c>
+      <c r="B1886">
+        <v>2459.61</v>
+      </c>
+      <c r="C1886">
+        <v>2460.5</v>
+      </c>
+      <c r="D1886">
+        <v>2453.59</v>
+      </c>
+      <c r="E1886">
+        <v>2453.59</v>
+      </c>
+      <c r="F1886">
+        <v>1487.5631</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6">
+      <c r="A1887" s="2">
+        <v>45538.95833333334</v>
+      </c>
+      <c r="B1887">
+        <v>2453.6</v>
+      </c>
+      <c r="C1887">
+        <v>2455</v>
+      </c>
+      <c r="D1887">
+        <v>2442.24</v>
+      </c>
+      <c r="E1887">
+        <v>2442.55</v>
+      </c>
+      <c r="F1887">
+        <v>4202.3618</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6">
+      <c r="A1888" s="2">
+        <v>45538.97916666666</v>
+      </c>
+      <c r="B1888">
+        <v>2442.55</v>
+      </c>
+      <c r="C1888">
+        <v>2448.68</v>
+      </c>
+      <c r="D1888">
+        <v>2411.12</v>
+      </c>
+      <c r="E1888">
+        <v>2425.29</v>
+      </c>
+      <c r="F1888">
+        <v>11204.3619</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6">
+      <c r="A1889" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1889">
+        <v>2425.28</v>
+      </c>
+      <c r="C1889">
+        <v>2449.22</v>
+      </c>
+      <c r="D1889">
+        <v>2424.01</v>
+      </c>
+      <c r="E1889">
+        <v>2442.13</v>
+      </c>
+      <c r="F1889">
+        <v>7548.6482</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:6">
+      <c r="A1890" s="2">
+        <v>45539.02083333334</v>
+      </c>
+      <c r="B1890">
+        <v>2442.12</v>
+      </c>
+      <c r="C1890">
+        <v>2447.91</v>
+      </c>
+      <c r="D1890">
+        <v>2389.2</v>
+      </c>
+      <c r="E1890">
+        <v>2396.28</v>
+      </c>
+      <c r="F1890">
+        <v>16448.6412</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:6">
+      <c r="A1891" s="2">
+        <v>45539.04166666666</v>
+      </c>
+      <c r="B1891">
+        <v>2396.28</v>
+      </c>
+      <c r="C1891">
+        <v>2397.12</v>
+      </c>
+      <c r="D1891">
+        <v>2306.65</v>
+      </c>
+      <c r="E1891">
+        <v>2352.67</v>
+      </c>
+      <c r="F1891">
+        <v>79752.61840000001</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:6">
+      <c r="A1892" s="2">
+        <v>45539.0625</v>
+      </c>
+      <c r="B1892">
+        <v>2352.67</v>
+      </c>
+      <c r="C1892">
+        <v>2381.48</v>
+      </c>
+      <c r="D1892">
+        <v>2351.6</v>
+      </c>
+      <c r="E1892">
+        <v>2366.11</v>
+      </c>
+      <c r="F1892">
+        <v>15875.6014</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6">
+      <c r="A1893" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1893">
+        <v>2366.11</v>
+      </c>
+      <c r="C1893">
+        <v>2371.4</v>
+      </c>
+      <c r="D1893">
+        <v>2355.73</v>
+      </c>
+      <c r="E1893">
+        <v>2360.87</v>
+      </c>
+      <c r="F1893">
+        <v>7630.8337</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:6">
+      <c r="A1894" s="2">
+        <v>45539.10416666666</v>
+      </c>
+      <c r="B1894">
+        <v>2360.87</v>
+      </c>
+      <c r="C1894">
+        <v>2369.39</v>
+      </c>
+      <c r="D1894">
+        <v>2360.8</v>
+      </c>
+      <c r="E1894">
+        <v>2364.44</v>
+      </c>
+      <c r="F1894">
+        <v>5429.2726</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6">
+      <c r="A1895" s="2">
+        <v>45539.125</v>
+      </c>
+      <c r="B1895">
+        <v>2364.44</v>
+      </c>
+      <c r="C1895">
+        <v>2382</v>
+      </c>
+      <c r="D1895">
+        <v>2364.07</v>
+      </c>
+      <c r="E1895">
+        <v>2381.74</v>
+      </c>
+      <c r="F1895">
+        <v>6242.3156</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:6">
+      <c r="A1896" s="2">
+        <v>45539.14583333334</v>
+      </c>
+      <c r="B1896">
+        <v>2381.73</v>
+      </c>
+      <c r="C1896">
+        <v>2382.48</v>
+      </c>
+      <c r="D1896">
+        <v>2371.69</v>
+      </c>
+      <c r="E1896">
+        <v>2373</v>
+      </c>
+      <c r="F1896">
+        <v>5438.9955</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:6">
+      <c r="A1897" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1897">
+        <v>2372.99</v>
+      </c>
+      <c r="C1897">
+        <v>2375.4</v>
+      </c>
+      <c r="D1897">
+        <v>2366.12</v>
+      </c>
+      <c r="E1897">
+        <v>2366.37</v>
+      </c>
+      <c r="F1897">
+        <v>3553.9399</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:6">
+      <c r="A1898" s="2">
+        <v>45539.1875</v>
+      </c>
+      <c r="B1898">
+        <v>2366.37</v>
+      </c>
+      <c r="C1898">
+        <v>2380.1</v>
+      </c>
+      <c r="D1898">
+        <v>2366.36</v>
+      </c>
+      <c r="E1898">
+        <v>2378.6</v>
+      </c>
+      <c r="F1898">
+        <v>2825.3324</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6">
+      <c r="A1899" s="2">
+        <v>45539.20833333334</v>
+      </c>
+      <c r="B1899">
+        <v>2378.59</v>
+      </c>
+      <c r="C1899">
+        <v>2381.45</v>
+      </c>
+      <c r="D1899">
+        <v>2371.07</v>
+      </c>
+      <c r="E1899">
+        <v>2378.94</v>
+      </c>
+      <c r="F1899">
+        <v>5341.008</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6">
+      <c r="A1900" s="2">
+        <v>45539.22916666666</v>
+      </c>
+      <c r="B1900">
+        <v>2378.93</v>
+      </c>
+      <c r="C1900">
+        <v>2380.14</v>
+      </c>
+      <c r="D1900">
+        <v>2363.56</v>
+      </c>
+      <c r="E1900">
+        <v>2365.24</v>
+      </c>
+      <c r="F1900">
+        <v>7793.5979</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:6">
+      <c r="A1901" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1901">
+        <v>2365.24</v>
+      </c>
+      <c r="C1901">
+        <v>2381.07</v>
+      </c>
+      <c r="D1901">
+        <v>2365.24</v>
+      </c>
+      <c r="E1901">
+        <v>2378.77</v>
+      </c>
+      <c r="F1901">
+        <v>5718.8259</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:6">
+      <c r="A1902" s="2">
+        <v>45539.27083333334</v>
+      </c>
+      <c r="B1902">
+        <v>2378.77</v>
+      </c>
+      <c r="C1902">
+        <v>2383.94</v>
+      </c>
+      <c r="D1902">
+        <v>2371.88</v>
+      </c>
+      <c r="E1902">
+        <v>2372.52</v>
+      </c>
+      <c r="F1902">
+        <v>3590.2936</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:6">
+      <c r="A1903" s="2">
+        <v>45539.29166666666</v>
+      </c>
+      <c r="B1903">
+        <v>2372.51</v>
+      </c>
+      <c r="C1903">
+        <v>2389.67</v>
+      </c>
+      <c r="D1903">
+        <v>2370.6</v>
+      </c>
+      <c r="E1903">
+        <v>2383.52</v>
+      </c>
+      <c r="F1903">
+        <v>6030.8715</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:6">
+      <c r="A1904" s="2">
+        <v>45539.3125</v>
+      </c>
+      <c r="B1904">
+        <v>2383.52</v>
+      </c>
+      <c r="C1904">
+        <v>2414.71</v>
+      </c>
+      <c r="D1904">
+        <v>2383.46</v>
+      </c>
+      <c r="E1904">
+        <v>2401.52</v>
+      </c>
+      <c r="F1904">
+        <v>10865.4806</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6">
+      <c r="A1905" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1905">
+        <v>2401.52</v>
+      </c>
+      <c r="C1905">
+        <v>2409.84</v>
+      </c>
+      <c r="D1905">
+        <v>2395.6</v>
+      </c>
+      <c r="E1905">
+        <v>2409.83</v>
+      </c>
+      <c r="F1905">
+        <v>6513.0808</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:6">
+      <c r="A1906" s="2">
+        <v>45539.35416666666</v>
+      </c>
+      <c r="B1906">
+        <v>2409.84</v>
+      </c>
+      <c r="C1906">
+        <v>2410.83</v>
+      </c>
+      <c r="D1906">
+        <v>2396.93</v>
+      </c>
+      <c r="E1906">
+        <v>2401.4</v>
+      </c>
+      <c r="F1906">
+        <v>3944.5044</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:6">
+      <c r="A1907" s="2">
+        <v>45539.375</v>
+      </c>
+      <c r="B1907">
+        <v>2401.41</v>
+      </c>
+      <c r="C1907">
+        <v>2404.92</v>
+      </c>
+      <c r="D1907">
+        <v>2396</v>
+      </c>
+      <c r="E1907">
+        <v>2399.5</v>
+      </c>
+      <c r="F1907">
+        <v>4526.0466</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6">
+      <c r="A1908" s="2">
+        <v>45539.39583333334</v>
+      </c>
+      <c r="B1908">
+        <v>2399.51</v>
+      </c>
+      <c r="C1908">
+        <v>2405</v>
+      </c>
+      <c r="D1908">
+        <v>2392.6</v>
+      </c>
+      <c r="E1908">
+        <v>2393.4</v>
+      </c>
+      <c r="F1908">
+        <v>6422.8124</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6">
+      <c r="A1909" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1909">
+        <v>2393.4</v>
+      </c>
+      <c r="C1909">
+        <v>2401.74</v>
+      </c>
+      <c r="D1909">
+        <v>2387.15</v>
+      </c>
+      <c r="E1909">
+        <v>2399.6</v>
+      </c>
+      <c r="F1909">
+        <v>4419.7804</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6">
+      <c r="A1910" s="2">
+        <v>45539.4375</v>
+      </c>
+      <c r="B1910">
+        <v>2399.6</v>
+      </c>
+      <c r="C1910">
+        <v>2403.4</v>
+      </c>
+      <c r="D1910">
+        <v>2388.49</v>
+      </c>
+      <c r="E1910">
+        <v>2389.14</v>
+      </c>
+      <c r="F1910">
+        <v>3851.6517</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6">
+      <c r="A1911" s="2">
+        <v>45539.45833333334</v>
+      </c>
+      <c r="B1911">
+        <v>2389.14</v>
+      </c>
+      <c r="C1911">
+        <v>2396.59</v>
+      </c>
+      <c r="D1911">
+        <v>2388.9</v>
+      </c>
+      <c r="E1911">
+        <v>2394.76</v>
+      </c>
+      <c r="F1911">
+        <v>4061.4171</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6">
+      <c r="A1912" s="2">
+        <v>45539.47916666666</v>
+      </c>
+      <c r="B1912">
+        <v>2394.77</v>
+      </c>
+      <c r="C1912">
+        <v>2403.2</v>
+      </c>
+      <c r="D1912">
+        <v>2394.52</v>
+      </c>
+      <c r="E1912">
+        <v>2398.77</v>
+      </c>
+      <c r="F1912">
+        <v>2881.3415</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:6">
+      <c r="A1913" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1913">
+        <v>2398.77</v>
+      </c>
+      <c r="C1913">
+        <v>2408.6</v>
+      </c>
+      <c r="D1913">
+        <v>2395.05</v>
+      </c>
+      <c r="E1913">
+        <v>2404.4</v>
+      </c>
+      <c r="F1913">
+        <v>7490.9505</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:6">
+      <c r="A1914" s="2">
+        <v>45539.52083333334</v>
+      </c>
+      <c r="B1914">
+        <v>2404.4</v>
+      </c>
+      <c r="C1914">
+        <v>2413.81</v>
+      </c>
+      <c r="D1914">
+        <v>2400.25</v>
+      </c>
+      <c r="E1914">
+        <v>2403.18</v>
+      </c>
+      <c r="F1914">
+        <v>8877.0278</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:6">
+      <c r="A1915" s="2">
+        <v>45539.54166666666</v>
+      </c>
+      <c r="B1915">
+        <v>2403.18</v>
+      </c>
+      <c r="C1915">
+        <v>2405.49</v>
+      </c>
+      <c r="D1915">
+        <v>2394.77</v>
+      </c>
+      <c r="E1915">
+        <v>2398.12</v>
+      </c>
+      <c r="F1915">
+        <v>7287.0565</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6">
+      <c r="A1916" s="2">
+        <v>45539.5625</v>
+      </c>
+      <c r="B1916">
+        <v>2398.12</v>
+      </c>
+      <c r="C1916">
+        <v>2410</v>
+      </c>
+      <c r="D1916">
+        <v>2395.12</v>
+      </c>
+      <c r="E1916">
+        <v>2404.98</v>
+      </c>
+      <c r="F1916">
+        <v>8346.251</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6">
+      <c r="A1917" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1917">
+        <v>2404.98</v>
+      </c>
+      <c r="C1917">
+        <v>2422.8</v>
+      </c>
+      <c r="D1917">
+        <v>2393.16</v>
+      </c>
+      <c r="E1917">
+        <v>2401.71</v>
+      </c>
+      <c r="F1917">
+        <v>15077.1211</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:6">
+      <c r="A1918" s="2">
+        <v>45539.60416666666</v>
+      </c>
+      <c r="B1918">
+        <v>2401.71</v>
+      </c>
+      <c r="C1918">
+        <v>2450.68</v>
+      </c>
+      <c r="D1918">
+        <v>2399.84</v>
+      </c>
+      <c r="E1918">
+        <v>2438.49</v>
+      </c>
+      <c r="F1918">
+        <v>19880.649</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6">
+      <c r="A1919" s="2">
+        <v>45539.625</v>
+      </c>
+      <c r="B1919">
+        <v>2438.49</v>
+      </c>
+      <c r="C1919">
+        <v>2444.35</v>
+      </c>
+      <c r="D1919">
+        <v>2428.1</v>
+      </c>
+      <c r="E1919">
+        <v>2430.51</v>
+      </c>
+      <c r="F1919">
+        <v>11673.0669</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:6">
+      <c r="A1920" s="2">
+        <v>45539.64583333334</v>
+      </c>
+      <c r="B1920">
+        <v>2430.51</v>
+      </c>
+      <c r="C1920">
+        <v>2458.57</v>
+      </c>
+      <c r="D1920">
+        <v>2426.5</v>
+      </c>
+      <c r="E1920">
+        <v>2455.4</v>
+      </c>
+      <c r="F1920">
+        <v>12607.8942</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:6">
+      <c r="A1921" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1921">
+        <v>2455.39</v>
+      </c>
+      <c r="C1921">
+        <v>2487</v>
+      </c>
+      <c r="D1921">
+        <v>2450</v>
+      </c>
+      <c r="E1921">
+        <v>2478.83</v>
+      </c>
+      <c r="F1921">
+        <v>16349.9745</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6">
+      <c r="A1922" s="2">
+        <v>45539.6875</v>
+      </c>
+      <c r="B1922">
+        <v>2478.83</v>
+      </c>
+      <c r="C1922">
+        <v>2490</v>
+      </c>
+      <c r="D1922">
+        <v>2472.88</v>
+      </c>
+      <c r="E1922">
+        <v>2477.12</v>
+      </c>
+      <c r="F1922">
+        <v>8188.2425</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6">
+      <c r="A1923" s="2">
+        <v>45539.70833333334</v>
+      </c>
+      <c r="B1923">
+        <v>2477.12</v>
+      </c>
+      <c r="C1923">
+        <v>2477.96</v>
+      </c>
+      <c r="D1923">
+        <v>2458.41</v>
+      </c>
+      <c r="E1923">
+        <v>2460.29</v>
+      </c>
+      <c r="F1923">
+        <v>6419.333</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:6">
+      <c r="A1924" s="2">
+        <v>45539.72916666666</v>
+      </c>
+      <c r="B1924">
+        <v>2460.29</v>
+      </c>
+      <c r="C1924">
+        <v>2463.71</v>
+      </c>
+      <c r="D1924">
+        <v>2447.81</v>
+      </c>
+      <c r="E1924">
+        <v>2449.49</v>
+      </c>
+      <c r="F1924">
+        <v>6311.7377</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6">
+      <c r="A1925" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1925">
+        <v>2449.49</v>
+      </c>
+      <c r="C1925">
+        <v>2457.16</v>
+      </c>
+      <c r="D1925">
+        <v>2444.77</v>
+      </c>
+      <c r="E1925">
+        <v>2449.37</v>
+      </c>
+      <c r="F1925">
+        <v>3356.943</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6">
+      <c r="A1926" s="2">
+        <v>45539.77083333334</v>
+      </c>
+      <c r="B1926">
+        <v>2449.29</v>
+      </c>
+      <c r="C1926">
+        <v>2454.35</v>
+      </c>
+      <c r="D1926">
+        <v>2439.2</v>
+      </c>
+      <c r="E1926">
+        <v>2442.39</v>
+      </c>
+      <c r="F1926">
+        <v>3534.7729</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6">
+      <c r="A1927" s="2">
+        <v>45539.79166666666</v>
+      </c>
+      <c r="B1927">
+        <v>2442.39</v>
+      </c>
+      <c r="C1927">
+        <v>2450</v>
+      </c>
+      <c r="D1927">
+        <v>2440.5</v>
+      </c>
+      <c r="E1927">
+        <v>2449.54</v>
+      </c>
+      <c r="F1927">
+        <v>1896.417</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6">
+      <c r="A1928" s="2">
+        <v>45539.8125</v>
+      </c>
+      <c r="B1928">
+        <v>2449.53</v>
+      </c>
+      <c r="C1928">
+        <v>2452.06</v>
+      </c>
+      <c r="D1928">
+        <v>2445.48</v>
+      </c>
+      <c r="E1928">
+        <v>2450.97</v>
+      </c>
+      <c r="F1928">
+        <v>733.3799</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:6">
+      <c r="A1929" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1929">
+        <v>2452.15</v>
+      </c>
+      <c r="C1929">
+        <v>2456.88</v>
+      </c>
+      <c r="D1929">
+        <v>2446.01</v>
+      </c>
+      <c r="E1929">
+        <v>2450.99</v>
+      </c>
+      <c r="F1929">
+        <v>1973.3965</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:6">
+      <c r="A1930" s="2">
+        <v>45539.85416666666</v>
+      </c>
+      <c r="B1930">
+        <v>2450.99</v>
+      </c>
+      <c r="C1930">
+        <v>2459.6</v>
+      </c>
+      <c r="D1930">
+        <v>2449.51</v>
+      </c>
+      <c r="E1930">
+        <v>2455.38</v>
+      </c>
+      <c r="F1930">
+        <v>3672.2942</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:6">
+      <c r="A1931" s="2">
+        <v>45539.875</v>
+      </c>
+      <c r="B1931">
+        <v>2455.39</v>
+      </c>
+      <c r="C1931">
+        <v>2458.12</v>
+      </c>
+      <c r="D1931">
+        <v>2451.28</v>
+      </c>
+      <c r="E1931">
+        <v>2453.34</v>
+      </c>
+      <c r="F1931">
+        <v>1446.1391</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:6">
+      <c r="A1932" s="2">
+        <v>45539.89583333334</v>
+      </c>
+      <c r="B1932">
+        <v>2453.33</v>
+      </c>
+      <c r="C1932">
+        <v>2465.63</v>
+      </c>
+      <c r="D1932">
+        <v>2453.33</v>
+      </c>
+      <c r="E1932">
+        <v>2463.13</v>
+      </c>
+      <c r="F1932">
+        <v>1383.8627</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:6">
+      <c r="A1933" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1933">
+        <v>2463.13</v>
+      </c>
+      <c r="C1933">
+        <v>2469.55</v>
+      </c>
+      <c r="D1933">
+        <v>2460.05</v>
+      </c>
+      <c r="E1933">
+        <v>2461.36</v>
+      </c>
+      <c r="F1933">
+        <v>3274.0745</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:6">
+      <c r="A1934" s="2">
+        <v>45539.9375</v>
+      </c>
+      <c r="B1934">
+        <v>2461.36</v>
+      </c>
+      <c r="C1934">
+        <v>2464.44</v>
+      </c>
+      <c r="D1934">
+        <v>2458.61</v>
+      </c>
+      <c r="E1934">
+        <v>2462.71</v>
+      </c>
+      <c r="F1934">
+        <v>1526.0551</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:6">
+      <c r="A1935" s="2">
+        <v>45539.95833333334</v>
+      </c>
+      <c r="B1935">
+        <v>2462.71</v>
+      </c>
+      <c r="C1935">
+        <v>2464.62</v>
+      </c>
+      <c r="D1935">
+        <v>2457</v>
+      </c>
+      <c r="E1935">
+        <v>2457.4</v>
+      </c>
+      <c r="F1935">
+        <v>1662.5361</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:6">
+      <c r="A1936" s="2">
+        <v>45539.97916666666</v>
+      </c>
+      <c r="B1936">
+        <v>2457.4</v>
+      </c>
+      <c r="C1936">
+        <v>2458.12</v>
+      </c>
+      <c r="D1936">
+        <v>2443.32</v>
+      </c>
+      <c r="E1936">
+        <v>2450.71</v>
+      </c>
+      <c r="F1936">
+        <v>3072.3134</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:6">
+      <c r="A1937" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1937">
+        <v>2450.71</v>
+      </c>
+      <c r="C1937">
+        <v>2462.35</v>
+      </c>
+      <c r="D1937">
+        <v>2447.17</v>
+      </c>
+      <c r="E1937">
+        <v>2460.41</v>
+      </c>
+      <c r="F1937">
+        <v>6960.1832</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:6">
+      <c r="A1938" s="2">
+        <v>45540.02083333334</v>
+      </c>
+      <c r="B1938">
+        <v>2460.42</v>
+      </c>
+      <c r="C1938">
+        <v>2461.2</v>
+      </c>
+      <c r="D1938">
+        <v>2454.64</v>
+      </c>
+      <c r="E1938">
+        <v>2454.75</v>
+      </c>
+      <c r="F1938">
+        <v>2094.3795</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:6">
+      <c r="A1939" s="2">
+        <v>45540.04166666666</v>
+      </c>
+      <c r="B1939">
+        <v>2454.74</v>
+      </c>
+      <c r="C1939">
+        <v>2458.71</v>
+      </c>
+      <c r="D1939">
+        <v>2451.9</v>
+      </c>
+      <c r="E1939">
+        <v>2456.68</v>
+      </c>
+      <c r="F1939">
+        <v>1996.5076</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:6">
+      <c r="A1940" s="2">
+        <v>45540.0625</v>
+      </c>
+      <c r="B1940">
+        <v>2456.67</v>
+      </c>
+      <c r="C1940">
+        <v>2466</v>
+      </c>
+      <c r="D1940">
+        <v>2456.38</v>
+      </c>
+      <c r="E1940">
+        <v>2458.36</v>
+      </c>
+      <c r="F1940">
+        <v>3807.0239</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:6">
+      <c r="A1941" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1941">
+        <v>2458.36</v>
+      </c>
+      <c r="C1941">
+        <v>2460.29</v>
+      </c>
+      <c r="D1941">
+        <v>2443.12</v>
+      </c>
+      <c r="E1941">
+        <v>2452</v>
+      </c>
+      <c r="F1941">
+        <v>8716.237300000001</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:6">
+      <c r="A1942" s="2">
+        <v>45540.10416666666</v>
+      </c>
+      <c r="B1942">
+        <v>2452</v>
+      </c>
+      <c r="C1942">
+        <v>2452.16</v>
+      </c>
+      <c r="D1942">
+        <v>2445.12</v>
+      </c>
+      <c r="E1942">
+        <v>2446.06</v>
+      </c>
+      <c r="F1942">
+        <v>2245.6371</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:6">
+      <c r="A1943" s="2">
+        <v>45540.125</v>
+      </c>
+      <c r="B1943">
+        <v>2446.06</v>
+      </c>
+      <c r="C1943">
+        <v>2446.06</v>
+      </c>
+      <c r="D1943">
+        <v>2414.08</v>
+      </c>
+      <c r="E1943">
+        <v>2418.25</v>
+      </c>
+      <c r="F1943">
+        <v>14294.1122</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:6">
+      <c r="A1944" s="2">
+        <v>45540.14583333334</v>
+      </c>
+      <c r="B1944">
+        <v>2418.25</v>
+      </c>
+      <c r="C1944">
+        <v>2420.28</v>
+      </c>
+      <c r="D1944">
+        <v>2404.28</v>
+      </c>
+      <c r="E1944">
+        <v>2405.55</v>
+      </c>
+      <c r="F1944">
+        <v>11068.0627</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:6">
+      <c r="A1945" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1945">
+        <v>2405.56</v>
+      </c>
+      <c r="C1945">
+        <v>2417.62</v>
+      </c>
+      <c r="D1945">
+        <v>2401.77</v>
+      </c>
+      <c r="E1945">
+        <v>2414.23</v>
+      </c>
+      <c r="F1945">
+        <v>7120.9051</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:6">
+      <c r="A1946" s="2">
+        <v>45540.1875</v>
+      </c>
+      <c r="B1946">
+        <v>2414.23</v>
+      </c>
+      <c r="C1946">
+        <v>2418.47</v>
+      </c>
+      <c r="D1946">
+        <v>2409.23</v>
+      </c>
+      <c r="E1946">
+        <v>2414.08</v>
+      </c>
+      <c r="F1946">
+        <v>4562.0792</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:6">
+      <c r="A1947" s="2">
+        <v>45540.20833333334</v>
+      </c>
+      <c r="B1947">
+        <v>2414.08</v>
+      </c>
+      <c r="C1947">
+        <v>2414.6</v>
+      </c>
+      <c r="D1947">
+        <v>2402.22</v>
+      </c>
+      <c r="E1947">
+        <v>2412.85</v>
+      </c>
+      <c r="F1947">
+        <v>4207.0155</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:6">
+      <c r="A1948" s="2">
+        <v>45540.22916666666</v>
+      </c>
+      <c r="B1948">
+        <v>2412.86</v>
+      </c>
+      <c r="C1948">
+        <v>2414.93</v>
+      </c>
+      <c r="D1948">
+        <v>2407.15</v>
+      </c>
+      <c r="E1948">
+        <v>2409.64</v>
+      </c>
+      <c r="F1948">
+        <v>1847.6477</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:6">
+      <c r="A1949" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1949">
+        <v>2409.64</v>
+      </c>
+      <c r="C1949">
+        <v>2410.23</v>
+      </c>
+      <c r="D1949">
+        <v>2376.72</v>
+      </c>
+      <c r="E1949">
+        <v>2393.58</v>
+      </c>
+      <c r="F1949">
+        <v>11920.018</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:6">
+      <c r="A1950" s="2">
+        <v>45540.27083333334</v>
+      </c>
+      <c r="B1950">
+        <v>2393.57</v>
+      </c>
+      <c r="C1950">
+        <v>2400.76</v>
+      </c>
+      <c r="D1950">
+        <v>2388.67</v>
+      </c>
+      <c r="E1950">
+        <v>2399.04</v>
+      </c>
+      <c r="F1950">
+        <v>3964.64</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:6">
+      <c r="A1951" s="2">
+        <v>45540.29166666666</v>
+      </c>
+      <c r="B1951">
+        <v>2399.03</v>
+      </c>
+      <c r="C1951">
+        <v>2417.16</v>
+      </c>
+      <c r="D1951">
+        <v>2397.6</v>
+      </c>
+      <c r="E1951">
+        <v>2414.68</v>
+      </c>
+      <c r="F1951">
+        <v>5831.0092</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:6">
+      <c r="A1952" s="2">
+        <v>45540.3125</v>
+      </c>
+      <c r="B1952">
+        <v>2414.68</v>
+      </c>
+      <c r="C1952">
+        <v>2417.2</v>
+      </c>
+      <c r="D1952">
+        <v>2411.66</v>
+      </c>
+      <c r="E1952">
+        <v>2412.4</v>
+      </c>
+      <c r="F1952">
+        <v>2685.158</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:6">
+      <c r="A1953" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1953">
+        <v>2412.41</v>
+      </c>
+      <c r="C1953">
+        <v>2416.35</v>
+      </c>
+      <c r="D1953">
+        <v>2408.57</v>
+      </c>
+      <c r="E1953">
+        <v>2408.57</v>
+      </c>
+      <c r="F1953">
+        <v>2669.6609</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:6">
+      <c r="A1954" s="2">
+        <v>45540.35416666666</v>
+      </c>
+      <c r="B1954">
+        <v>2408.58</v>
+      </c>
+      <c r="C1954">
+        <v>2409.96</v>
+      </c>
+      <c r="D1954">
+        <v>2398.46</v>
+      </c>
+      <c r="E1954">
+        <v>2406.87</v>
+      </c>
+      <c r="F1954">
+        <v>3900.4489</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:6">
+      <c r="A1955" s="2">
+        <v>45540.375</v>
+      </c>
+      <c r="B1955">
+        <v>2406.87</v>
+      </c>
+      <c r="C1955">
+        <v>2407</v>
+      </c>
+      <c r="D1955">
+        <v>2389.24</v>
+      </c>
+      <c r="E1955">
+        <v>2394.12</v>
+      </c>
+      <c r="F1955">
+        <v>3710.3115</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:6">
+      <c r="A1956" s="2">
+        <v>45540.39583333334</v>
+      </c>
+      <c r="B1956">
+        <v>2394.11</v>
+      </c>
+      <c r="C1956">
+        <v>2399.83</v>
+      </c>
+      <c r="D1956">
+        <v>2385.65</v>
+      </c>
+      <c r="E1956">
+        <v>2392.21</v>
+      </c>
+      <c r="F1956">
+        <v>4793.8482</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:6">
+      <c r="A1957" s="2">
+        <v>45540.41666666666</v>
+      </c>
+      <c r="B1957">
+        <v>2392.2</v>
+      </c>
+      <c r="C1957">
+        <v>2395.52</v>
+      </c>
+      <c r="D1957">
+        <v>2383.16</v>
+      </c>
+      <c r="E1957">
+        <v>2388.68</v>
+      </c>
+      <c r="F1957">
+        <v>3866.1473</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:6">
+      <c r="A1958" s="2">
+        <v>45540.4375</v>
+      </c>
+      <c r="B1958">
+        <v>2388.68</v>
+      </c>
+      <c r="C1958">
+        <v>2395.91</v>
+      </c>
+      <c r="D1958">
+        <v>2386.97</v>
+      </c>
+      <c r="E1958">
+        <v>2390.73</v>
+      </c>
+      <c r="F1958">
+        <v>2358.9056</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:6">
+      <c r="A1959" s="2">
+        <v>45540.45833333334</v>
+      </c>
+      <c r="B1959">
+        <v>2390.74</v>
+      </c>
+      <c r="C1959">
+        <v>2395.12</v>
+      </c>
+      <c r="D1959">
+        <v>2386.94</v>
+      </c>
+      <c r="E1959">
+        <v>2391.5</v>
+      </c>
+      <c r="F1959">
+        <v>3851.2817</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:6">
+      <c r="A1960" s="2">
+        <v>45540.47916666666</v>
+      </c>
+      <c r="B1960">
+        <v>2391.51</v>
+      </c>
+      <c r="C1960">
+        <v>2395.65</v>
+      </c>
+      <c r="D1960">
+        <v>2387.59</v>
+      </c>
+      <c r="E1960">
+        <v>2389.54</v>
+      </c>
+      <c r="F1960">
+        <v>3297.633</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:6">
+      <c r="A1961" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1961">
+        <v>2389.53</v>
+      </c>
+      <c r="C1961">
+        <v>2395.05</v>
+      </c>
+      <c r="D1961">
+        <v>2377.01</v>
+      </c>
+      <c r="E1961">
+        <v>2389.62</v>
+      </c>
+      <c r="F1961">
+        <v>7559.1625</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:6">
+      <c r="A1962" s="2">
+        <v>45540.52083333334</v>
+      </c>
+      <c r="B1962">
+        <v>2389.63</v>
+      </c>
+      <c r="C1962">
+        <v>2399</v>
+      </c>
+      <c r="D1962">
+        <v>2382.78</v>
+      </c>
+      <c r="E1962">
+        <v>2390.36</v>
+      </c>
+      <c r="F1962">
+        <v>7291.54</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:6">
+      <c r="A1963" s="2">
+        <v>45540.54166666666</v>
+      </c>
+      <c r="B1963">
+        <v>2390.36</v>
+      </c>
+      <c r="C1963">
+        <v>2399.4</v>
+      </c>
+      <c r="D1963">
+        <v>2390.36</v>
+      </c>
+      <c r="E1963">
+        <v>2396.8</v>
+      </c>
+      <c r="F1963">
+        <v>2970.1097</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:6">
+      <c r="A1964" s="2">
+        <v>45540.5625</v>
+      </c>
+      <c r="B1964">
+        <v>2396.8</v>
+      </c>
+      <c r="C1964">
+        <v>2414.58</v>
+      </c>
+      <c r="D1964">
+        <v>2385.75</v>
+      </c>
+      <c r="E1964">
+        <v>2402.32</v>
+      </c>
+      <c r="F1964">
+        <v>10866.6845</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:6">
+      <c r="A1965" s="2">
+        <v>45540.58333333334</v>
+      </c>
+      <c r="B1965">
+        <v>2402.33</v>
+      </c>
+      <c r="C1965">
+        <v>2415.15</v>
+      </c>
+      <c r="D1965">
+        <v>2388.1</v>
+      </c>
+      <c r="E1965">
+        <v>2398.45</v>
+      </c>
+      <c r="F1965">
+        <v>13228.7668</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:6">
+      <c r="A1966" s="2">
+        <v>45540.60416666666</v>
+      </c>
+      <c r="B1966">
+        <v>2398.45</v>
+      </c>
+      <c r="C1966">
+        <v>2404.35</v>
+      </c>
+      <c r="D1966">
+        <v>2363.68</v>
+      </c>
+      <c r="E1966">
+        <v>2377.21</v>
+      </c>
+      <c r="F1966">
+        <v>15832.4611</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:6">
+      <c r="A1967" s="2">
+        <v>45540.625</v>
+      </c>
+      <c r="B1967">
+        <v>2377.2</v>
+      </c>
+      <c r="C1967">
+        <v>2385.45</v>
+      </c>
+      <c r="D1967">
+        <v>2356.09</v>
+      </c>
+      <c r="E1967">
+        <v>2360.86</v>
+      </c>
+      <c r="F1967">
+        <v>14804.4917</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:6">
+      <c r="A1968" s="2">
+        <v>45540.64583333334</v>
+      </c>
+      <c r="B1968">
+        <v>2360.85</v>
+      </c>
+      <c r="C1968">
+        <v>2378.49</v>
+      </c>
+      <c r="D1968">
+        <v>2355.8</v>
+      </c>
+      <c r="E1968">
+        <v>2371.43</v>
+      </c>
+      <c r="F1968">
+        <v>12892.8219</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:6">
+      <c r="A1969" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1969">
+        <v>2371.43</v>
+      </c>
+      <c r="C1969">
+        <v>2378.4</v>
+      </c>
+      <c r="D1969">
+        <v>2367.34</v>
+      </c>
+      <c r="E1969">
+        <v>2373.3</v>
+      </c>
+      <c r="F1969">
+        <v>5950.8076</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:6">
+      <c r="A1970" s="2">
+        <v>45540.6875</v>
+      </c>
+      <c r="B1970">
+        <v>2373.31</v>
+      </c>
+      <c r="C1970">
+        <v>2378.63</v>
+      </c>
+      <c r="D1970">
+        <v>2367.34</v>
+      </c>
+      <c r="E1970">
+        <v>2375.2</v>
+      </c>
+      <c r="F1970">
+        <v>3490.8003</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:6">
+      <c r="A1971" s="2">
+        <v>45540.70833333334</v>
+      </c>
+      <c r="B1971">
+        <v>2375.2</v>
+      </c>
+      <c r="C1971">
+        <v>2388.53</v>
+      </c>
+      <c r="D1971">
+        <v>2371.61</v>
+      </c>
+      <c r="E1971">
+        <v>2379.01</v>
+      </c>
+      <c r="F1971">
+        <v>5168.2065</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:6">
+      <c r="A1972" s="2">
+        <v>45540.72916666666</v>
+      </c>
+      <c r="B1972">
+        <v>2379.01</v>
+      </c>
+      <c r="C1972">
+        <v>2393.8</v>
+      </c>
+      <c r="D1972">
+        <v>2376.2</v>
+      </c>
+      <c r="E1972">
+        <v>2393.8</v>
+      </c>
+      <c r="F1972">
+        <v>4737.4746</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:6">
+      <c r="A1973" s="2">
+        <v>45540.75</v>
+      </c>
+      <c r="B1973">
+        <v>2393.8</v>
+      </c>
+      <c r="C1973">
+        <v>2395.99</v>
+      </c>
+      <c r="D1973">
+        <v>2387.28</v>
+      </c>
+      <c r="E1973">
+        <v>2391.79</v>
+      </c>
+      <c r="F1973">
+        <v>3453.2761</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:6">
+      <c r="A1974" s="2">
+        <v>45540.77083333334</v>
+      </c>
+      <c r="B1974">
+        <v>2391.78</v>
+      </c>
+      <c r="C1974">
+        <v>2394.55</v>
+      </c>
+      <c r="D1974">
+        <v>2388.38</v>
+      </c>
+      <c r="E1974">
+        <v>2389.55</v>
+      </c>
+      <c r="F1974">
+        <v>1631.8321</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:6">
+      <c r="A1975" s="2">
+        <v>45540.79166666666</v>
+      </c>
+      <c r="B1975">
+        <v>2389.55</v>
+      </c>
+      <c r="C1975">
+        <v>2390.26</v>
+      </c>
+      <c r="D1975">
+        <v>2360.62</v>
+      </c>
+      <c r="E1975">
+        <v>2375.6</v>
+      </c>
+      <c r="F1975">
+        <v>6367.498</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:6">
+      <c r="A1976" s="2">
+        <v>45540.8125</v>
+      </c>
+      <c r="B1976">
+        <v>2375.61</v>
+      </c>
+      <c r="C1976">
+        <v>2379.15</v>
+      </c>
+      <c r="D1976">
+        <v>2348.04</v>
+      </c>
+      <c r="E1976">
+        <v>2363.97</v>
+      </c>
+      <c r="F1976">
+        <v>12389.9021</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:6">
+      <c r="A1977" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1977">
+        <v>2363.97</v>
+      </c>
+      <c r="C1977">
+        <v>2375.77</v>
+      </c>
+      <c r="D1977">
+        <v>2362.61</v>
+      </c>
+      <c r="E1977">
+        <v>2373.19</v>
+      </c>
+      <c r="F1977">
+        <v>3467.3224</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:6">
+      <c r="A1978" s="2">
+        <v>45540.85416666666</v>
+      </c>
+      <c r="B1978">
+        <v>2373.2</v>
+      </c>
+      <c r="C1978">
+        <v>2378.33</v>
+      </c>
+      <c r="D1978">
+        <v>2366.56</v>
+      </c>
+      <c r="E1978">
+        <v>2367.79</v>
+      </c>
+      <c r="F1978">
+        <v>3773.1899</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:6">
+      <c r="A1979" s="2">
+        <v>45540.875</v>
+      </c>
+      <c r="B1979">
+        <v>2367.79</v>
+      </c>
+      <c r="C1979">
+        <v>2377.14</v>
+      </c>
+      <c r="D1979">
+        <v>2367.65</v>
+      </c>
+      <c r="E1979">
+        <v>2374.15</v>
+      </c>
+      <c r="F1979">
+        <v>1665.165</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:6">
+      <c r="A1980" s="2">
+        <v>45540.89583333334</v>
+      </c>
+      <c r="B1980">
+        <v>2374.14</v>
+      </c>
+      <c r="C1980">
+        <v>2376.46</v>
+      </c>
+      <c r="D1980">
+        <v>2350</v>
+      </c>
+      <c r="E1980">
+        <v>2371.84</v>
+      </c>
+      <c r="F1980">
+        <v>8006.0164</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:6">
+      <c r="A1981" s="2">
+        <v>45540.91666666666</v>
+      </c>
+      <c r="B1981">
+        <v>2371.85</v>
+      </c>
+      <c r="C1981">
+        <v>2375</v>
+      </c>
+      <c r="D1981">
+        <v>2355.4</v>
+      </c>
+      <c r="E1981">
+        <v>2363.84</v>
+      </c>
+      <c r="F1981">
+        <v>2342.8117</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:6">
+      <c r="A1982" s="2">
+        <v>45540.9375</v>
+      </c>
+      <c r="B1982">
+        <v>2363.85</v>
+      </c>
+      <c r="C1982">
+        <v>2375.17</v>
+      </c>
+      <c r="D1982">
+        <v>2363.76</v>
+      </c>
+      <c r="E1982">
+        <v>2371.67</v>
+      </c>
+      <c r="F1982">
+        <v>4922.097</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:6">
+      <c r="A1983" s="2">
+        <v>45540.95833333334</v>
+      </c>
+      <c r="B1983">
+        <v>2371.67</v>
+      </c>
+      <c r="C1983">
+        <v>2373.17</v>
+      </c>
+      <c r="D1983">
+        <v>2364.1</v>
+      </c>
+      <c r="E1983">
+        <v>2368.45</v>
+      </c>
+      <c r="F1983">
+        <v>1733.7469</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:6">
+      <c r="A1984" s="2">
+        <v>45540.97916666666</v>
+      </c>
+      <c r="B1984">
+        <v>2368.45</v>
+      </c>
+      <c r="C1984">
+        <v>2370.99</v>
+      </c>
+      <c r="D1984">
+        <v>2364.8</v>
+      </c>
+      <c r="E1984">
+        <v>2368.81</v>
+      </c>
+      <c r="F1984">
+        <v>2234.0588</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:6">
+      <c r="A1985" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1985">
+        <v>2368.81</v>
+      </c>
+      <c r="C1985">
+        <v>2376.58</v>
+      </c>
+      <c r="D1985">
+        <v>2367.71</v>
+      </c>
+      <c r="E1985">
+        <v>2372.08</v>
+      </c>
+      <c r="F1985">
+        <v>3259.0065</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:6">
+      <c r="A1986" s="2">
+        <v>45541.02083333334</v>
+      </c>
+      <c r="B1986">
+        <v>2372.09</v>
+      </c>
+      <c r="C1986">
+        <v>2373.84</v>
+      </c>
+      <c r="D1986">
+        <v>2357.6</v>
+      </c>
+      <c r="E1986">
+        <v>2372.25</v>
+      </c>
+      <c r="F1986">
+        <v>3519.1161</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:6">
+      <c r="A1987" s="2">
+        <v>45541.04166666666</v>
+      </c>
+      <c r="B1987">
+        <v>2372.23</v>
+      </c>
+      <c r="C1987">
+        <v>2380.8</v>
+      </c>
+      <c r="D1987">
+        <v>2363.91</v>
+      </c>
+      <c r="E1987">
+        <v>2376.36</v>
+      </c>
+      <c r="F1987">
+        <v>2932.4463</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:6">
+      <c r="A1988" s="2">
+        <v>45541.0625</v>
+      </c>
+      <c r="B1988">
+        <v>2376.36</v>
+      </c>
+      <c r="C1988">
+        <v>2400.48</v>
+      </c>
+      <c r="D1988">
+        <v>2376.19</v>
+      </c>
+      <c r="E1988">
+        <v>2391.42</v>
+      </c>
+      <c r="F1988">
+        <v>7753.7668</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:6">
+      <c r="A1989" s="2">
+        <v>45541.08333333334</v>
+      </c>
+      <c r="B1989">
+        <v>2391.43</v>
+      </c>
+      <c r="C1989">
+        <v>2407.24</v>
+      </c>
+      <c r="D1989">
+        <v>2389.42</v>
+      </c>
+      <c r="E1989">
+        <v>2405.01</v>
+      </c>
+      <c r="F1989">
+        <v>5892.9392</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:6">
+      <c r="A1990" s="2">
+        <v>45541.10416666666</v>
+      </c>
+      <c r="B1990">
+        <v>2405</v>
+      </c>
+      <c r="C1990">
+        <v>2408.4</v>
+      </c>
+      <c r="D1990">
+        <v>2398.23</v>
+      </c>
+      <c r="E1990">
+        <v>2402.42</v>
+      </c>
+      <c r="F1990">
+        <v>4576.8601</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:6">
+      <c r="A1991" s="2">
+        <v>45541.125</v>
+      </c>
+      <c r="B1991">
+        <v>2402.42</v>
+      </c>
+      <c r="C1991">
+        <v>2402.95</v>
+      </c>
+      <c r="D1991">
+        <v>2397.2</v>
+      </c>
+      <c r="E1991">
+        <v>2401.42</v>
+      </c>
+      <c r="F1991">
+        <v>2611.4907</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:6">
+      <c r="A1992" s="2">
+        <v>45541.14583333334</v>
+      </c>
+      <c r="B1992">
+        <v>2401.42</v>
+      </c>
+      <c r="C1992">
+        <v>2402.22</v>
+      </c>
+      <c r="D1992">
+        <v>2391.8</v>
+      </c>
+      <c r="E1992">
+        <v>2392.63</v>
+      </c>
+      <c r="F1992">
+        <v>2434.8942</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:6">
+      <c r="A1993" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1993">
+        <v>2392.63</v>
+      </c>
+      <c r="C1993">
+        <v>2397.35</v>
+      </c>
+      <c r="D1993">
+        <v>2389.68</v>
+      </c>
+      <c r="E1993">
+        <v>2391.55</v>
+      </c>
+      <c r="F1993">
+        <v>2336.6485</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:6">
+      <c r="A1994" s="2">
+        <v>45541.1875</v>
+      </c>
+      <c r="B1994">
+        <v>2391.56</v>
+      </c>
+      <c r="C1994">
+        <v>2393.59</v>
+      </c>
+      <c r="D1994">
+        <v>2385</v>
+      </c>
+      <c r="E1994">
+        <v>2386.06</v>
+      </c>
+      <c r="F1994">
+        <v>3360.5963</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:6">
+      <c r="A1995" s="2">
+        <v>45541.20833333334</v>
+      </c>
+      <c r="B1995">
+        <v>2386.07</v>
+      </c>
+      <c r="C1995">
+        <v>2389.31</v>
+      </c>
+      <c r="D1995">
+        <v>2376.52</v>
+      </c>
+      <c r="E1995">
+        <v>2377.86</v>
+      </c>
+      <c r="F1995">
+        <v>3863.5202</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:6">
+      <c r="A1996" s="2">
+        <v>45541.22916666666</v>
+      </c>
+      <c r="B1996">
+        <v>2377.87</v>
+      </c>
+      <c r="C1996">
+        <v>2386.33</v>
+      </c>
+      <c r="D1996">
+        <v>2375.28</v>
+      </c>
+      <c r="E1996">
+        <v>2384.27</v>
+      </c>
+      <c r="F1996">
+        <v>3381.1628</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:6">
+      <c r="A1997" s="2">
+        <v>45541.25</v>
+      </c>
+      <c r="B1997">
+        <v>2384.26</v>
+      </c>
+      <c r="C1997">
+        <v>2386.06</v>
+      </c>
+      <c r="D1997">
+        <v>2373.78</v>
+      </c>
+      <c r="E1997">
+        <v>2374.2</v>
+      </c>
+      <c r="F1997">
+        <v>3066.0843</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:6">
+      <c r="A1998" s="2">
+        <v>45541.27083333334</v>
+      </c>
+      <c r="B1998">
+        <v>2374.19</v>
+      </c>
+      <c r="C1998">
+        <v>2381.51</v>
+      </c>
+      <c r="D1998">
+        <v>2373.17</v>
+      </c>
+      <c r="E1998">
+        <v>2379.48</v>
+      </c>
+      <c r="F1998">
+        <v>2707.9111</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:6">
+      <c r="A1999" s="2">
+        <v>45541.29166666666</v>
+      </c>
+      <c r="B1999">
+        <v>2379.48</v>
+      </c>
+      <c r="C1999">
+        <v>2379.83</v>
+      </c>
+      <c r="D1999">
+        <v>2321.21</v>
+      </c>
+      <c r="E1999">
+        <v>2336.97</v>
+      </c>
+      <c r="F1999">
+        <v>27590.543</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:6">
+      <c r="A2000" s="2">
+        <v>45541.3125</v>
+      </c>
+      <c r="B2000">
+        <v>2336.97</v>
+      </c>
+      <c r="C2000">
+        <v>2348.06</v>
+      </c>
+      <c r="D2000">
+        <v>2327.57</v>
+      </c>
+      <c r="E2000">
+        <v>2344.45</v>
+      </c>
+      <c r="F2000">
+        <v>10837.2853</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:6">
+      <c r="A2001" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B2001">
+        <v>2344.44</v>
+      </c>
+      <c r="C2001">
+        <v>2357.56</v>
+      </c>
+      <c r="D2001">
+        <v>2343.6</v>
+      </c>
+      <c r="E2001">
+        <v>2350.74</v>
+      </c>
+      <c r="F2001">
+        <v>6302.3187</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:6">
+      <c r="A2002" s="2">
+        <v>45541.35416666666</v>
+      </c>
+      <c r="B2002">
+        <v>2350.73</v>
+      </c>
+      <c r="C2002">
+        <v>2354.27</v>
+      </c>
+      <c r="D2002">
+        <v>2338.57</v>
+      </c>
+      <c r="E2002">
+        <v>2350.14</v>
+      </c>
+      <c r="F2002">
+        <v>6678.5977</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:6">
+      <c r="A2003" s="2">
+        <v>45541.375</v>
+      </c>
+      <c r="B2003">
+        <v>2350.15</v>
+      </c>
+      <c r="C2003">
+        <v>2355</v>
+      </c>
+      <c r="D2003">
+        <v>2345.84</v>
+      </c>
+      <c r="E2003">
+        <v>2349.59</v>
+      </c>
+      <c r="F2003">
+        <v>4316.6107</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:6">
+      <c r="A2004" s="2">
+        <v>45541.39583333334</v>
+      </c>
+      <c r="B2004">
+        <v>2349.59</v>
+      </c>
+      <c r="C2004">
+        <v>2359.36</v>
+      </c>
+      <c r="D2004">
+        <v>2348.77</v>
+      </c>
+      <c r="E2004">
+        <v>2358.32</v>
+      </c>
+      <c r="F2004">
+        <v>3506.9913</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:6">
+      <c r="A2005" s="2">
+        <v>45541.41666666666</v>
+      </c>
+      <c r="B2005">
+        <v>2358.32</v>
+      </c>
+      <c r="C2005">
+        <v>2374.49</v>
+      </c>
+      <c r="D2005">
+        <v>2356.21</v>
+      </c>
+      <c r="E2005">
+        <v>2369.24</v>
+      </c>
+      <c r="F2005">
+        <v>5283.6744</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:6">
+      <c r="A2006" s="2">
+        <v>45541.4375</v>
+      </c>
+      <c r="B2006">
+        <v>2369.24</v>
+      </c>
+      <c r="C2006">
+        <v>2377.4</v>
+      </c>
+      <c r="D2006">
+        <v>2367.2</v>
+      </c>
+      <c r="E2006">
+        <v>2367.54</v>
+      </c>
+      <c r="F2006">
+        <v>3965.1534</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:6">
+      <c r="A2007" s="2">
+        <v>45541.45833333334</v>
+      </c>
+      <c r="B2007">
+        <v>2367.55</v>
+      </c>
+      <c r="C2007">
+        <v>2371.6</v>
+      </c>
+      <c r="D2007">
+        <v>2365.41</v>
+      </c>
+      <c r="E2007">
+        <v>2370.58</v>
+      </c>
+      <c r="F2007">
+        <v>2897.348</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:6">
+      <c r="A2008" s="2">
+        <v>45541.47916666666</v>
+      </c>
+      <c r="B2008">
+        <v>2370.58</v>
+      </c>
+      <c r="C2008">
+        <v>2379.4</v>
+      </c>
+      <c r="D2008">
+        <v>2369.57</v>
+      </c>
+      <c r="E2008">
+        <v>2372.95</v>
+      </c>
+      <c r="F2008">
+        <v>6962.5158</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:6">
+      <c r="A2009" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B2009">
+        <v>2372.96</v>
+      </c>
+      <c r="C2009">
+        <v>2379.8</v>
+      </c>
+      <c r="D2009">
+        <v>2366.07</v>
+      </c>
+      <c r="E2009">
+        <v>2379.48</v>
+      </c>
+      <c r="F2009">
+        <v>3179.9174</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:6">
+      <c r="A2010" s="2">
+        <v>45541.52083333334</v>
+      </c>
+      <c r="B2010">
+        <v>2370.75</v>
+      </c>
+      <c r="C2010">
+        <v>2395.96</v>
+      </c>
+      <c r="D2010">
+        <v>2355.84</v>
+      </c>
+      <c r="E2010">
+        <v>2391.76</v>
+      </c>
+      <c r="F2010">
+        <v>11208.1663</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:6">
+      <c r="A2011" s="2">
+        <v>45541.54166666666</v>
+      </c>
+      <c r="B2011">
+        <v>2399.76</v>
+      </c>
+      <c r="C2011">
+        <v>2401.28</v>
+      </c>
+      <c r="D2011">
+        <v>2388.97</v>
+      </c>
+      <c r="E2011">
+        <v>2395.29</v>
+      </c>
+      <c r="F2011">
+        <v>6775.3712</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:6">
+      <c r="A2012" s="2">
+        <v>45541.5625</v>
+      </c>
+      <c r="B2012">
+        <v>2395.3</v>
+      </c>
+      <c r="C2012">
+        <v>2399.37</v>
+      </c>
+      <c r="D2012">
+        <v>2386.6</v>
+      </c>
+      <c r="E2012">
+        <v>2391.45</v>
+      </c>
+      <c r="F2012">
+        <v>2322.2039</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:6">
+      <c r="A2013" s="2">
+        <v>45541.58333333334</v>
+      </c>
+      <c r="B2013">
+        <v>2363.2</v>
+      </c>
+      <c r="C2013">
+        <v>2366.76</v>
+      </c>
+      <c r="D2013">
+        <v>2352.2</v>
+      </c>
+      <c r="E2013">
+        <v>2364.15</v>
+      </c>
+      <c r="F2013">
+        <v>2236.6155</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:6">
+      <c r="A2014" s="2">
+        <v>45541.60416666666</v>
+      </c>
+      <c r="B2014">
+        <v>2330.89</v>
+      </c>
+      <c r="C2014">
+        <v>2335.91</v>
+      </c>
+      <c r="D2014">
+        <v>2325</v>
+      </c>
+      <c r="E2014">
+        <v>2331.9</v>
+      </c>
+      <c r="F2014">
+        <v>1690.7812</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
